--- a/data/TexasCOVID19DailyCountyFatalityCountData.xlsx
+++ b/data/TexasCOVID19DailyCountyFatalityCountData.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A4C1C61E-B333-4E6A-B45D-15BCBAFF6F5E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7B4F7CE5-7317-4A49-8D80-E9CF9DA0CB00}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fatalities by County" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="375">
   <si>
-    <t>COVID-19 Total Fatalities by County, 3/4/2020 - 06/10/20 at 9:30 AM CST</t>
+    <t>COVID-19 Total Fatalities by County, 3/4/2020 - 06/18/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -329,6 +329,30 @@
   </si>
   <si>
     <t>Fatalities 06/10</t>
+  </si>
+  <si>
+    <t>Fatalities 06/11</t>
+  </si>
+  <si>
+    <t>Fatalities 06/12</t>
+  </si>
+  <si>
+    <t>Fatalities 06/13</t>
+  </si>
+  <si>
+    <t>Fatalities 06/14</t>
+  </si>
+  <si>
+    <t>Fatalities 06/15</t>
+  </si>
+  <si>
+    <t>Fatalities 06/16</t>
+  </si>
+  <si>
+    <t>Fatalities 06/17</t>
+  </si>
+  <si>
+    <t>Fatalities 06/18</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1140,20 +1164,17 @@
       <sz val="14"/>
       <color rgb="FF003087"/>
       <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF005CB9"/>
       <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1194,7 +1215,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1512,29 +1533,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CW267"/>
+  <dimension ref="A1:DE267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A232" sqref="A232:B232"/>
+      <selection activeCell="DE260" sqref="DE260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.08984375" customWidth="1"/>
-    <col min="2" max="101" width="12" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="109" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:109" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:101" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:109" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:101" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:109" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1838,10 +1859,34 @@
       <c r="CW3" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="CX3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="CY3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="CZ3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="DA3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="DB3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="DC3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="DD3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="DE3" s="3" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="4" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B4" s="4">
         <v>58199</v>
@@ -2143,10 +2188,34 @@
       <c r="CW4">
         <v>0</v>
       </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DB4">
+        <v>0</v>
+      </c>
+      <c r="DC4">
+        <v>2</v>
+      </c>
+      <c r="DD4">
+        <v>2</v>
+      </c>
+      <c r="DE4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B5" s="4">
         <v>22269</v>
@@ -2448,10 +2517,34 @@
       <c r="CW5">
         <v>0</v>
       </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DB5">
+        <v>0</v>
+      </c>
+      <c r="DC5">
+        <v>0</v>
+      </c>
+      <c r="DD5">
+        <v>0</v>
+      </c>
+      <c r="DE5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B6" s="4">
         <v>90437</v>
@@ -2753,10 +2846,34 @@
       <c r="CW6">
         <v>5</v>
       </c>
+      <c r="CX6">
+        <v>5</v>
+      </c>
+      <c r="CY6">
+        <v>5</v>
+      </c>
+      <c r="CZ6">
+        <v>5</v>
+      </c>
+      <c r="DA6">
+        <v>5</v>
+      </c>
+      <c r="DB6">
+        <v>5</v>
+      </c>
+      <c r="DC6">
+        <v>5</v>
+      </c>
+      <c r="DD6">
+        <v>5</v>
+      </c>
+      <c r="DE6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="7" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B7" s="4">
         <v>27699</v>
@@ -3058,10 +3175,34 @@
       <c r="CW7">
         <v>0</v>
       </c>
+      <c r="CX7">
+        <v>0</v>
+      </c>
+      <c r="CY7">
+        <v>0</v>
+      </c>
+      <c r="CZ7">
+        <v>0</v>
+      </c>
+      <c r="DA7">
+        <v>0</v>
+      </c>
+      <c r="DB7">
+        <v>0</v>
+      </c>
+      <c r="DC7">
+        <v>0</v>
+      </c>
+      <c r="DD7">
+        <v>0</v>
+      </c>
+      <c r="DE7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B8" s="4">
         <v>8344</v>
@@ -3363,10 +3504,34 @@
       <c r="CW8">
         <v>0</v>
       </c>
+      <c r="CX8">
+        <v>0</v>
+      </c>
+      <c r="CY8">
+        <v>0</v>
+      </c>
+      <c r="CZ8">
+        <v>0</v>
+      </c>
+      <c r="DA8">
+        <v>0</v>
+      </c>
+      <c r="DB8">
+        <v>0</v>
+      </c>
+      <c r="DC8">
+        <v>0</v>
+      </c>
+      <c r="DD8">
+        <v>0</v>
+      </c>
+      <c r="DE8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B9" s="4">
         <v>1948</v>
@@ -3668,10 +3833,34 @@
       <c r="CW9">
         <v>0</v>
       </c>
+      <c r="CX9">
+        <v>0</v>
+      </c>
+      <c r="CY9">
+        <v>0</v>
+      </c>
+      <c r="CZ9">
+        <v>0</v>
+      </c>
+      <c r="DA9">
+        <v>0</v>
+      </c>
+      <c r="DB9">
+        <v>0</v>
+      </c>
+      <c r="DC9">
+        <v>0</v>
+      </c>
+      <c r="DD9">
+        <v>0</v>
+      </c>
+      <c r="DE9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B10" s="4">
         <v>51831</v>
@@ -3973,10 +4162,34 @@
       <c r="CW10">
         <v>2</v>
       </c>
+      <c r="CX10">
+        <v>2</v>
+      </c>
+      <c r="CY10">
+        <v>2</v>
+      </c>
+      <c r="CZ10">
+        <v>2</v>
+      </c>
+      <c r="DA10">
+        <v>2</v>
+      </c>
+      <c r="DB10">
+        <v>2</v>
+      </c>
+      <c r="DC10">
+        <v>2</v>
+      </c>
+      <c r="DD10">
+        <v>2</v>
+      </c>
+      <c r="DE10">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B11" s="4">
         <v>30402</v>
@@ -4278,10 +4491,34 @@
       <c r="CW11">
         <v>0</v>
       </c>
+      <c r="CX11">
+        <v>0</v>
+      </c>
+      <c r="CY11">
+        <v>0</v>
+      </c>
+      <c r="CZ11">
+        <v>0</v>
+      </c>
+      <c r="DA11">
+        <v>0</v>
+      </c>
+      <c r="DB11">
+        <v>0</v>
+      </c>
+      <c r="DC11">
+        <v>0</v>
+      </c>
+      <c r="DD11">
+        <v>0</v>
+      </c>
+      <c r="DE11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B12" s="4">
         <v>7692</v>
@@ -4583,10 +4820,34 @@
       <c r="CW12">
         <v>0</v>
       </c>
+      <c r="CX12">
+        <v>0</v>
+      </c>
+      <c r="CY12">
+        <v>0</v>
+      </c>
+      <c r="CZ12">
+        <v>0</v>
+      </c>
+      <c r="DA12">
+        <v>0</v>
+      </c>
+      <c r="DB12">
+        <v>0</v>
+      </c>
+      <c r="DC12">
+        <v>0</v>
+      </c>
+      <c r="DD12">
+        <v>0</v>
+      </c>
+      <c r="DE12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B13" s="4">
         <v>21246</v>
@@ -4888,10 +5149,34 @@
       <c r="CW13">
         <v>0</v>
       </c>
+      <c r="CX13">
+        <v>0</v>
+      </c>
+      <c r="CY13">
+        <v>0</v>
+      </c>
+      <c r="CZ13">
+        <v>0</v>
+      </c>
+      <c r="DA13">
+        <v>0</v>
+      </c>
+      <c r="DB13">
+        <v>0</v>
+      </c>
+      <c r="DC13">
+        <v>0</v>
+      </c>
+      <c r="DD13">
+        <v>0</v>
+      </c>
+      <c r="DE13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B14" s="4">
         <v>86105</v>
@@ -5193,10 +5478,34 @@
       <c r="CW14">
         <v>4</v>
       </c>
+      <c r="CX14">
+        <v>4</v>
+      </c>
+      <c r="CY14">
+        <v>4</v>
+      </c>
+      <c r="CZ14">
+        <v>4</v>
+      </c>
+      <c r="DA14">
+        <v>4</v>
+      </c>
+      <c r="DB14">
+        <v>4</v>
+      </c>
+      <c r="DC14">
+        <v>4</v>
+      </c>
+      <c r="DD14">
+        <v>4</v>
+      </c>
+      <c r="DE14">
+        <v>4</v>
+      </c>
     </row>
-    <row r="15" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B15" s="4">
         <v>3624</v>
@@ -5498,10 +5807,34 @@
       <c r="CW15">
         <v>0</v>
       </c>
+      <c r="CX15">
+        <v>0</v>
+      </c>
+      <c r="CY15">
+        <v>0</v>
+      </c>
+      <c r="CZ15">
+        <v>0</v>
+      </c>
+      <c r="DA15">
+        <v>0</v>
+      </c>
+      <c r="DB15">
+        <v>0</v>
+      </c>
+      <c r="DC15">
+        <v>0</v>
+      </c>
+      <c r="DD15">
+        <v>0</v>
+      </c>
+      <c r="DE15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B16" s="4">
         <v>34445</v>
@@ -5803,10 +6136,34 @@
       <c r="CW16">
         <v>0</v>
       </c>
+      <c r="CX16">
+        <v>0</v>
+      </c>
+      <c r="CY16">
+        <v>0</v>
+      </c>
+      <c r="CZ16">
+        <v>0</v>
+      </c>
+      <c r="DA16">
+        <v>0</v>
+      </c>
+      <c r="DB16">
+        <v>0</v>
+      </c>
+      <c r="DC16">
+        <v>0</v>
+      </c>
+      <c r="DD16">
+        <v>0</v>
+      </c>
+      <c r="DE16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B17" s="4">
         <v>353629</v>
@@ -6108,10 +6465,34 @@
       <c r="CW17">
         <v>6</v>
       </c>
+      <c r="CX17">
+        <v>6</v>
+      </c>
+      <c r="CY17">
+        <v>6</v>
+      </c>
+      <c r="CZ17">
+        <v>6</v>
+      </c>
+      <c r="DA17">
+        <v>6</v>
+      </c>
+      <c r="DB17">
+        <v>6</v>
+      </c>
+      <c r="DC17">
+        <v>7</v>
+      </c>
+      <c r="DD17">
+        <v>7</v>
+      </c>
+      <c r="DE17">
+        <v>9</v>
+      </c>
     </row>
-    <row r="18" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B18" s="4">
         <v>2093502</v>
@@ -6413,10 +6794,34 @@
       <c r="CW18">
         <v>80</v>
       </c>
+      <c r="CX18">
+        <v>80</v>
+      </c>
+      <c r="CY18">
+        <v>82</v>
+      </c>
+      <c r="CZ18">
+        <v>84</v>
+      </c>
+      <c r="DA18">
+        <v>88</v>
+      </c>
+      <c r="DB18">
+        <v>88</v>
+      </c>
+      <c r="DC18">
+        <v>89</v>
+      </c>
+      <c r="DD18">
+        <v>89</v>
+      </c>
+      <c r="DE18">
+        <v>90</v>
+      </c>
     </row>
-    <row r="19" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B19" s="4">
         <v>11504</v>
@@ -6718,10 +7123,34 @@
       <c r="CW19">
         <v>1</v>
       </c>
+      <c r="CX19">
+        <v>1</v>
+      </c>
+      <c r="CY19">
+        <v>1</v>
+      </c>
+      <c r="CZ19">
+        <v>1</v>
+      </c>
+      <c r="DA19">
+        <v>1</v>
+      </c>
+      <c r="DB19">
+        <v>1</v>
+      </c>
+      <c r="DC19">
+        <v>1</v>
+      </c>
+      <c r="DD19">
+        <v>1</v>
+      </c>
+      <c r="DE19">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B20" s="4">
         <v>685</v>
@@ -7023,10 +7452,34 @@
       <c r="CW20">
         <v>0</v>
       </c>
+      <c r="CX20">
+        <v>0</v>
+      </c>
+      <c r="CY20">
+        <v>0</v>
+      </c>
+      <c r="CZ20">
+        <v>0</v>
+      </c>
+      <c r="DA20">
+        <v>0</v>
+      </c>
+      <c r="DB20">
+        <v>0</v>
+      </c>
+      <c r="DC20">
+        <v>0</v>
+      </c>
+      <c r="DD20">
+        <v>0</v>
+      </c>
+      <c r="DE20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B21" s="4">
         <v>17765</v>
@@ -7328,10 +7781,34 @@
       <c r="CW21">
         <v>0</v>
       </c>
+      <c r="CX21">
+        <v>0</v>
+      </c>
+      <c r="CY21">
+        <v>0</v>
+      </c>
+      <c r="CZ21">
+        <v>0</v>
+      </c>
+      <c r="DA21">
+        <v>0</v>
+      </c>
+      <c r="DB21">
+        <v>0</v>
+      </c>
+      <c r="DC21">
+        <v>0</v>
+      </c>
+      <c r="DD21">
+        <v>0</v>
+      </c>
+      <c r="DE21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B22" s="4">
         <v>92570</v>
@@ -7633,10 +8110,34 @@
       <c r="CW22">
         <v>7</v>
       </c>
+      <c r="CX22">
+        <v>7</v>
+      </c>
+      <c r="CY22">
+        <v>7</v>
+      </c>
+      <c r="CZ22">
+        <v>7</v>
+      </c>
+      <c r="DA22">
+        <v>7</v>
+      </c>
+      <c r="DB22">
+        <v>7</v>
+      </c>
+      <c r="DC22">
+        <v>8</v>
+      </c>
+      <c r="DD22">
+        <v>8</v>
+      </c>
+      <c r="DE22">
+        <v>8</v>
+      </c>
     </row>
-    <row r="23" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B23" s="4">
         <v>375869</v>
@@ -7938,10 +8439,34 @@
       <c r="CW23">
         <v>11</v>
       </c>
+      <c r="CX23">
+        <v>11</v>
+      </c>
+      <c r="CY23">
+        <v>11</v>
+      </c>
+      <c r="CZ23">
+        <v>11</v>
+      </c>
+      <c r="DA23">
+        <v>12</v>
+      </c>
+      <c r="DB23">
+        <v>13</v>
+      </c>
+      <c r="DC23">
+        <v>18</v>
+      </c>
+      <c r="DD23">
+        <v>18</v>
+      </c>
+      <c r="DE23">
+        <v>18</v>
+      </c>
     </row>
-    <row r="24" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B24" s="4">
         <v>229410</v>
@@ -8243,10 +8768,34 @@
       <c r="CW24">
         <v>24</v>
       </c>
+      <c r="CX24">
+        <v>24</v>
+      </c>
+      <c r="CY24">
+        <v>24</v>
+      </c>
+      <c r="CZ24">
+        <v>24</v>
+      </c>
+      <c r="DA24">
+        <v>25</v>
+      </c>
+      <c r="DB24">
+        <v>25</v>
+      </c>
+      <c r="DC24">
+        <v>25</v>
+      </c>
+      <c r="DD24">
+        <v>25</v>
+      </c>
+      <c r="DE24">
+        <v>25</v>
+      </c>
     </row>
-    <row r="25" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B25" s="4">
         <v>9133</v>
@@ -8548,10 +9097,34 @@
       <c r="CW25">
         <v>0</v>
       </c>
+      <c r="CX25">
+        <v>0</v>
+      </c>
+      <c r="CY25">
+        <v>0</v>
+      </c>
+      <c r="CZ25">
+        <v>0</v>
+      </c>
+      <c r="DA25">
+        <v>0</v>
+      </c>
+      <c r="DB25">
+        <v>0</v>
+      </c>
+      <c r="DC25">
+        <v>0</v>
+      </c>
+      <c r="DD25">
+        <v>0</v>
+      </c>
+      <c r="DE25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B26" s="4">
         <v>1568</v>
@@ -8853,10 +9426,34 @@
       <c r="CW26">
         <v>0</v>
       </c>
+      <c r="CX26">
+        <v>0</v>
+      </c>
+      <c r="CY26">
+        <v>0</v>
+      </c>
+      <c r="CZ26">
+        <v>0</v>
+      </c>
+      <c r="DA26">
+        <v>0</v>
+      </c>
+      <c r="DB26">
+        <v>0</v>
+      </c>
+      <c r="DC26">
+        <v>0</v>
+      </c>
+      <c r="DD26">
+        <v>0</v>
+      </c>
+      <c r="DE26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B27" s="4">
         <v>7175</v>
@@ -9158,10 +9755,34 @@
       <c r="CW27">
         <v>0</v>
       </c>
+      <c r="CX27">
+        <v>0</v>
+      </c>
+      <c r="CY27">
+        <v>0</v>
+      </c>
+      <c r="CZ27">
+        <v>0</v>
+      </c>
+      <c r="DA27">
+        <v>0</v>
+      </c>
+      <c r="DB27">
+        <v>0</v>
+      </c>
+      <c r="DC27">
+        <v>0</v>
+      </c>
+      <c r="DD27">
+        <v>0</v>
+      </c>
+      <c r="DE27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B28" s="4">
         <v>38923</v>
@@ -9463,10 +10084,34 @@
       <c r="CW28">
         <v>10</v>
       </c>
+      <c r="CX28">
+        <v>10</v>
+      </c>
+      <c r="CY28">
+        <v>10</v>
+      </c>
+      <c r="CZ28">
+        <v>10</v>
+      </c>
+      <c r="DA28">
+        <v>10</v>
+      </c>
+      <c r="DB28">
+        <v>10</v>
+      </c>
+      <c r="DC28">
+        <v>10</v>
+      </c>
+      <c r="DD28">
+        <v>10</v>
+      </c>
+      <c r="DE28">
+        <v>10</v>
+      </c>
     </row>
-    <row r="29" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B29" s="4">
         <v>17718</v>
@@ -9768,10 +10413,34 @@
       <c r="CW29">
         <v>0</v>
       </c>
+      <c r="CX29">
+        <v>0</v>
+      </c>
+      <c r="CY29">
+        <v>0</v>
+      </c>
+      <c r="CZ29">
+        <v>0</v>
+      </c>
+      <c r="DA29">
+        <v>0</v>
+      </c>
+      <c r="DB29">
+        <v>0</v>
+      </c>
+      <c r="DC29">
+        <v>0</v>
+      </c>
+      <c r="DD29">
+        <v>0</v>
+      </c>
+      <c r="DE29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B30" s="4">
         <v>48196</v>
@@ -10073,10 +10742,34 @@
       <c r="CW30">
         <v>1</v>
       </c>
+      <c r="CX30">
+        <v>1</v>
+      </c>
+      <c r="CY30">
+        <v>1</v>
+      </c>
+      <c r="CZ30">
+        <v>1</v>
+      </c>
+      <c r="DA30">
+        <v>1</v>
+      </c>
+      <c r="DB30">
+        <v>1</v>
+      </c>
+      <c r="DC30">
+        <v>1</v>
+      </c>
+      <c r="DD30">
+        <v>1</v>
+      </c>
+      <c r="DE30">
+        <v>2</v>
+      </c>
     </row>
-    <row r="31" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B31" s="4">
         <v>44284</v>
@@ -10378,10 +11071,34 @@
       <c r="CW31">
         <v>0</v>
       </c>
+      <c r="CX31">
+        <v>0</v>
+      </c>
+      <c r="CY31">
+        <v>0</v>
+      </c>
+      <c r="CZ31">
+        <v>0</v>
+      </c>
+      <c r="DA31">
+        <v>0</v>
+      </c>
+      <c r="DB31">
+        <v>0</v>
+      </c>
+      <c r="DC31">
+        <v>0</v>
+      </c>
+      <c r="DD31">
+        <v>1</v>
+      </c>
+      <c r="DE31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B32" s="4">
         <v>22840</v>
@@ -10683,10 +11400,34 @@
       <c r="CW32">
         <v>3</v>
       </c>
+      <c r="CX32">
+        <v>3</v>
+      </c>
+      <c r="CY32">
+        <v>3</v>
+      </c>
+      <c r="CZ32">
+        <v>3</v>
+      </c>
+      <c r="DA32">
+        <v>3</v>
+      </c>
+      <c r="DB32">
+        <v>3</v>
+      </c>
+      <c r="DC32">
+        <v>3</v>
+      </c>
+      <c r="DD32">
+        <v>3</v>
+      </c>
+      <c r="DE32">
+        <v>3</v>
+      </c>
     </row>
-    <row r="33" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B33" s="4">
         <v>13456</v>
@@ -10988,10 +11729,34 @@
       <c r="CW33">
         <v>1</v>
       </c>
+      <c r="CX33">
+        <v>1</v>
+      </c>
+      <c r="CY33">
+        <v>1</v>
+      </c>
+      <c r="CZ33">
+        <v>2</v>
+      </c>
+      <c r="DA33">
+        <v>2</v>
+      </c>
+      <c r="DB33">
+        <v>2</v>
+      </c>
+      <c r="DC33">
+        <v>2</v>
+      </c>
+      <c r="DD33">
+        <v>2</v>
+      </c>
+      <c r="DE33">
+        <v>2</v>
+      </c>
     </row>
-    <row r="34" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B34" s="4">
         <v>427881</v>
@@ -11293,10 +12058,34 @@
       <c r="CW34">
         <v>40</v>
       </c>
+      <c r="CX34">
+        <v>42</v>
+      </c>
+      <c r="CY34">
+        <v>44</v>
+      </c>
+      <c r="CZ34">
+        <v>44</v>
+      </c>
+      <c r="DA34">
+        <v>44</v>
+      </c>
+      <c r="DB34">
+        <v>44</v>
+      </c>
+      <c r="DC34">
+        <v>44</v>
+      </c>
+      <c r="DD34">
+        <v>45</v>
+      </c>
+      <c r="DE34">
+        <v>47</v>
+      </c>
     </row>
-    <row r="35" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B35" s="4">
         <v>13322</v>
@@ -11598,10 +12387,34 @@
       <c r="CW35">
         <v>0</v>
       </c>
+      <c r="CX35">
+        <v>1</v>
+      </c>
+      <c r="CY35">
+        <v>1</v>
+      </c>
+      <c r="CZ35">
+        <v>1</v>
+      </c>
+      <c r="DA35">
+        <v>1</v>
+      </c>
+      <c r="DB35">
+        <v>1</v>
+      </c>
+      <c r="DC35">
+        <v>1</v>
+      </c>
+      <c r="DD35">
+        <v>1</v>
+      </c>
+      <c r="DE35">
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B36" s="4">
         <v>5799</v>
@@ -11903,10 +12716,34 @@
       <c r="CW36">
         <v>0</v>
       </c>
+      <c r="CX36">
+        <v>0</v>
+      </c>
+      <c r="CY36">
+        <v>0</v>
+      </c>
+      <c r="CZ36">
+        <v>0</v>
+      </c>
+      <c r="DA36">
+        <v>0</v>
+      </c>
+      <c r="DB36">
+        <v>0</v>
+      </c>
+      <c r="DC36">
+        <v>0</v>
+      </c>
+      <c r="DD36">
+        <v>0</v>
+      </c>
+      <c r="DE36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B37" s="4">
         <v>30327</v>
@@ -12208,10 +13045,34 @@
       <c r="CW37">
         <v>1</v>
       </c>
+      <c r="CX37">
+        <v>1</v>
+      </c>
+      <c r="CY37">
+        <v>1</v>
+      </c>
+      <c r="CZ37">
+        <v>1</v>
+      </c>
+      <c r="DA37">
+        <v>2</v>
+      </c>
+      <c r="DB37">
+        <v>2</v>
+      </c>
+      <c r="DC37">
+        <v>2</v>
+      </c>
+      <c r="DD37">
+        <v>2</v>
+      </c>
+      <c r="DE37">
+        <v>2</v>
+      </c>
     </row>
-    <row r="38" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B38" s="4">
         <v>7103</v>
@@ -12513,10 +13374,34 @@
       <c r="CW38">
         <v>1</v>
       </c>
+      <c r="CX38">
+        <v>1</v>
+      </c>
+      <c r="CY38">
+        <v>1</v>
+      </c>
+      <c r="CZ38">
+        <v>1</v>
+      </c>
+      <c r="DA38">
+        <v>1</v>
+      </c>
+      <c r="DB38">
+        <v>1</v>
+      </c>
+      <c r="DC38">
+        <v>1</v>
+      </c>
+      <c r="DD38">
+        <v>1</v>
+      </c>
+      <c r="DE38">
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B39" s="4">
         <v>42320</v>
@@ -12818,10 +13703,34 @@
       <c r="CW39">
         <v>0</v>
       </c>
+      <c r="CX39">
+        <v>0</v>
+      </c>
+      <c r="CY39">
+        <v>0</v>
+      </c>
+      <c r="CZ39">
+        <v>0</v>
+      </c>
+      <c r="DA39">
+        <v>0</v>
+      </c>
+      <c r="DB39">
+        <v>0</v>
+      </c>
+      <c r="DC39">
+        <v>0</v>
+      </c>
+      <c r="DD39">
+        <v>0</v>
+      </c>
+      <c r="DE39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B40" s="4">
         <v>52178</v>
@@ -13123,10 +14032,34 @@
       <c r="CW40">
         <v>2</v>
       </c>
+      <c r="CX40">
+        <v>2</v>
+      </c>
+      <c r="CY40">
+        <v>2</v>
+      </c>
+      <c r="CZ40">
+        <v>2</v>
+      </c>
+      <c r="DA40">
+        <v>2</v>
+      </c>
+      <c r="DB40">
+        <v>2</v>
+      </c>
+      <c r="DC40">
+        <v>2</v>
+      </c>
+      <c r="DD40">
+        <v>2</v>
+      </c>
+      <c r="DE40">
+        <v>2</v>
+      </c>
     </row>
-    <row r="41" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B41" s="4">
         <v>7062</v>
@@ -13428,10 +14361,34 @@
       <c r="CW41">
         <v>0</v>
       </c>
+      <c r="CX41">
+        <v>0</v>
+      </c>
+      <c r="CY41">
+        <v>0</v>
+      </c>
+      <c r="CZ41">
+        <v>0</v>
+      </c>
+      <c r="DA41">
+        <v>0</v>
+      </c>
+      <c r="DB41">
+        <v>0</v>
+      </c>
+      <c r="DC41">
+        <v>0</v>
+      </c>
+      <c r="DD41">
+        <v>0</v>
+      </c>
+      <c r="DE41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B42" s="4">
         <v>9787</v>
@@ -13733,10 +14690,34 @@
       <c r="CW42">
         <v>0</v>
       </c>
+      <c r="CX42">
+        <v>0</v>
+      </c>
+      <c r="CY42">
+        <v>0</v>
+      </c>
+      <c r="CZ42">
+        <v>0</v>
+      </c>
+      <c r="DA42">
+        <v>0</v>
+      </c>
+      <c r="DB42">
+        <v>0</v>
+      </c>
+      <c r="DC42">
+        <v>0</v>
+      </c>
+      <c r="DD42">
+        <v>0</v>
+      </c>
+      <c r="DE42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B43" s="4">
         <v>3348</v>
@@ -14038,10 +15019,34 @@
       <c r="CW43">
         <v>0</v>
       </c>
+      <c r="CX43">
+        <v>0</v>
+      </c>
+      <c r="CY43">
+        <v>0</v>
+      </c>
+      <c r="CZ43">
+        <v>0</v>
+      </c>
+      <c r="DA43">
+        <v>0</v>
+      </c>
+      <c r="DB43">
+        <v>0</v>
+      </c>
+      <c r="DC43">
+        <v>0</v>
+      </c>
+      <c r="DD43">
+        <v>0</v>
+      </c>
+      <c r="DE43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B44" s="4">
         <v>3215</v>
@@ -14343,10 +15348,34 @@
       <c r="CW44">
         <v>0</v>
       </c>
+      <c r="CX44">
+        <v>0</v>
+      </c>
+      <c r="CY44">
+        <v>0</v>
+      </c>
+      <c r="CZ44">
+        <v>0</v>
+      </c>
+      <c r="DA44">
+        <v>0</v>
+      </c>
+      <c r="DB44">
+        <v>0</v>
+      </c>
+      <c r="DC44">
+        <v>0</v>
+      </c>
+      <c r="DD44">
+        <v>0</v>
+      </c>
+      <c r="DE44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B45" s="4">
         <v>8478</v>
@@ -14648,10 +15677,34 @@
       <c r="CW45">
         <v>0</v>
       </c>
+      <c r="CX45">
+        <v>0</v>
+      </c>
+      <c r="CY45">
+        <v>0</v>
+      </c>
+      <c r="CZ45">
+        <v>0</v>
+      </c>
+      <c r="DA45">
+        <v>0</v>
+      </c>
+      <c r="DB45">
+        <v>0</v>
+      </c>
+      <c r="DC45">
+        <v>0</v>
+      </c>
+      <c r="DD45">
+        <v>0</v>
+      </c>
+      <c r="DE45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B46" s="4">
         <v>1039369</v>
@@ -14953,10 +16006,34 @@
       <c r="CW46">
         <v>37</v>
       </c>
+      <c r="CX46">
+        <v>37</v>
+      </c>
+      <c r="CY46">
+        <v>37</v>
+      </c>
+      <c r="CZ46">
+        <v>37</v>
+      </c>
+      <c r="DA46">
+        <v>37</v>
+      </c>
+      <c r="DB46">
+        <v>37</v>
+      </c>
+      <c r="DC46">
+        <v>38</v>
+      </c>
+      <c r="DD46">
+        <v>38</v>
+      </c>
+      <c r="DE46">
+        <v>38</v>
+      </c>
     </row>
-    <row r="47" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B47" s="4">
         <v>3210</v>
@@ -15258,10 +16335,34 @@
       <c r="CW47">
         <v>0</v>
       </c>
+      <c r="CX47">
+        <v>0</v>
+      </c>
+      <c r="CY47">
+        <v>0</v>
+      </c>
+      <c r="CZ47">
+        <v>0</v>
+      </c>
+      <c r="DA47">
+        <v>0</v>
+      </c>
+      <c r="DB47">
+        <v>0</v>
+      </c>
+      <c r="DC47">
+        <v>0</v>
+      </c>
+      <c r="DD47">
+        <v>0</v>
+      </c>
+      <c r="DE47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B48" s="4">
         <v>21273</v>
@@ -15563,10 +16664,34 @@
       <c r="CW48">
         <v>0</v>
       </c>
+      <c r="CX48">
+        <v>0</v>
+      </c>
+      <c r="CY48">
+        <v>0</v>
+      </c>
+      <c r="CZ48">
+        <v>0</v>
+      </c>
+      <c r="DA48">
+        <v>0</v>
+      </c>
+      <c r="DB48">
+        <v>0</v>
+      </c>
+      <c r="DC48">
+        <v>0</v>
+      </c>
+      <c r="DD48">
+        <v>0</v>
+      </c>
+      <c r="DE48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B49" s="4">
         <v>147330</v>
@@ -15868,10 +16993,34 @@
       <c r="CW49">
         <v>7</v>
       </c>
+      <c r="CX49">
+        <v>7</v>
+      </c>
+      <c r="CY49">
+        <v>7</v>
+      </c>
+      <c r="CZ49">
+        <v>7</v>
+      </c>
+      <c r="DA49">
+        <v>7</v>
+      </c>
+      <c r="DB49">
+        <v>7</v>
+      </c>
+      <c r="DC49">
+        <v>7</v>
+      </c>
+      <c r="DD49">
+        <v>7</v>
+      </c>
+      <c r="DE49">
+        <v>7</v>
+      </c>
     </row>
-    <row r="50" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B50" s="4">
         <v>13075</v>
@@ -16173,10 +17322,34 @@
       <c r="CW50">
         <v>1</v>
       </c>
+      <c r="CX50">
+        <v>1</v>
+      </c>
+      <c r="CY50">
+        <v>1</v>
+      </c>
+      <c r="CZ50">
+        <v>1</v>
+      </c>
+      <c r="DA50">
+        <v>1</v>
+      </c>
+      <c r="DB50">
+        <v>1</v>
+      </c>
+      <c r="DC50">
+        <v>1</v>
+      </c>
+      <c r="DD50">
+        <v>1</v>
+      </c>
+      <c r="DE50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B51" s="4">
         <v>4147</v>
@@ -16478,10 +17651,34 @@
       <c r="CW51">
         <v>0</v>
       </c>
+      <c r="CX51">
+        <v>0</v>
+      </c>
+      <c r="CY51">
+        <v>0</v>
+      </c>
+      <c r="CZ51">
+        <v>0</v>
+      </c>
+      <c r="DA51">
+        <v>0</v>
+      </c>
+      <c r="DB51">
+        <v>0</v>
+      </c>
+      <c r="DC51">
+        <v>0</v>
+      </c>
+      <c r="DD51">
+        <v>0</v>
+      </c>
+      <c r="DE51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B52" s="4">
         <v>39727</v>
@@ -16783,10 +17980,34 @@
       <c r="CW52">
         <v>0</v>
       </c>
+      <c r="CX52">
+        <v>0</v>
+      </c>
+      <c r="CY52">
+        <v>0</v>
+      </c>
+      <c r="CZ52">
+        <v>0</v>
+      </c>
+      <c r="DA52">
+        <v>0</v>
+      </c>
+      <c r="DB52">
+        <v>0</v>
+      </c>
+      <c r="DC52">
+        <v>0</v>
+      </c>
+      <c r="DD52">
+        <v>0</v>
+      </c>
+      <c r="DE52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B53" s="4">
         <v>78317</v>
@@ -17088,10 +18309,34 @@
       <c r="CW53">
         <v>2</v>
       </c>
+      <c r="CX53">
+        <v>2</v>
+      </c>
+      <c r="CY53">
+        <v>2</v>
+      </c>
+      <c r="CZ53">
+        <v>2</v>
+      </c>
+      <c r="DA53">
+        <v>2</v>
+      </c>
+      <c r="DB53">
+        <v>2</v>
+      </c>
+      <c r="DC53">
+        <v>2</v>
+      </c>
+      <c r="DD53">
+        <v>2</v>
+      </c>
+      <c r="DE53">
+        <v>2</v>
+      </c>
     </row>
-    <row r="54" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B54" s="4">
         <v>1510</v>
@@ -17393,10 +18638,34 @@
       <c r="CW54">
         <v>1</v>
       </c>
+      <c r="CX54">
+        <v>1</v>
+      </c>
+      <c r="CY54">
+        <v>1</v>
+      </c>
+      <c r="CZ54">
+        <v>1</v>
+      </c>
+      <c r="DA54">
+        <v>1</v>
+      </c>
+      <c r="DB54">
+        <v>1</v>
+      </c>
+      <c r="DC54">
+        <v>1</v>
+      </c>
+      <c r="DD54">
+        <v>1</v>
+      </c>
+      <c r="DE54">
+        <v>1</v>
+      </c>
     </row>
-    <row r="55" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B55" s="4">
         <v>6209</v>
@@ -17698,10 +18967,34 @@
       <c r="CW55">
         <v>5</v>
       </c>
+      <c r="CX55">
+        <v>5</v>
+      </c>
+      <c r="CY55">
+        <v>5</v>
+      </c>
+      <c r="CZ55">
+        <v>5</v>
+      </c>
+      <c r="DA55">
+        <v>5</v>
+      </c>
+      <c r="DB55">
+        <v>5</v>
+      </c>
+      <c r="DC55">
+        <v>5</v>
+      </c>
+      <c r="DD55">
+        <v>5</v>
+      </c>
+      <c r="DE55">
+        <v>5</v>
+      </c>
     </row>
-    <row r="56" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B56" s="4">
         <v>4040</v>
@@ -18003,10 +19296,34 @@
       <c r="CW56">
         <v>0</v>
       </c>
+      <c r="CX56">
+        <v>0</v>
+      </c>
+      <c r="CY56">
+        <v>0</v>
+      </c>
+      <c r="CZ56">
+        <v>0</v>
+      </c>
+      <c r="DA56">
+        <v>0</v>
+      </c>
+      <c r="DB56">
+        <v>0</v>
+      </c>
+      <c r="DC56">
+        <v>0</v>
+      </c>
+      <c r="DD56">
+        <v>0</v>
+      </c>
+      <c r="DE56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B57" s="4">
         <v>6464</v>
@@ -18308,10 +19625,34 @@
       <c r="CW57">
         <v>1</v>
       </c>
+      <c r="CX57">
+        <v>1</v>
+      </c>
+      <c r="CY57">
+        <v>1</v>
+      </c>
+      <c r="CZ57">
+        <v>1</v>
+      </c>
+      <c r="DA57">
+        <v>1</v>
+      </c>
+      <c r="DB57">
+        <v>1</v>
+      </c>
+      <c r="DC57">
+        <v>1</v>
+      </c>
+      <c r="DD57">
+        <v>1</v>
+      </c>
+      <c r="DE57">
+        <v>1</v>
+      </c>
     </row>
-    <row r="58" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B58" s="4">
         <v>2245</v>
@@ -18613,10 +19954,34 @@
       <c r="CW58">
         <v>0</v>
       </c>
+      <c r="CX58">
+        <v>0</v>
+      </c>
+      <c r="CY58">
+        <v>0</v>
+      </c>
+      <c r="CZ58">
+        <v>0</v>
+      </c>
+      <c r="DA58">
+        <v>0</v>
+      </c>
+      <c r="DB58">
+        <v>0</v>
+      </c>
+      <c r="DC58">
+        <v>0</v>
+      </c>
+      <c r="DD58">
+        <v>0</v>
+      </c>
+      <c r="DE58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B59" s="4">
         <v>7237</v>
@@ -18918,10 +20283,34 @@
       <c r="CW59">
         <v>0</v>
       </c>
+      <c r="CX59">
+        <v>0</v>
+      </c>
+      <c r="CY59">
+        <v>0</v>
+      </c>
+      <c r="CZ59">
+        <v>0</v>
+      </c>
+      <c r="DA59">
+        <v>0</v>
+      </c>
+      <c r="DB59">
+        <v>0</v>
+      </c>
+      <c r="DC59">
+        <v>0</v>
+      </c>
+      <c r="DD59">
+        <v>0</v>
+      </c>
+      <c r="DE59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B60" s="4">
         <v>2734111</v>
@@ -19223,10 +20612,34 @@
       <c r="CW60">
         <v>271</v>
       </c>
+      <c r="CX60">
+        <v>274</v>
+      </c>
+      <c r="CY60">
+        <v>277</v>
+      </c>
+      <c r="CZ60">
+        <v>280</v>
+      </c>
+      <c r="DA60">
+        <v>283</v>
+      </c>
+      <c r="DB60">
+        <v>284</v>
+      </c>
+      <c r="DC60">
+        <v>285</v>
+      </c>
+      <c r="DD60">
+        <v>293</v>
+      </c>
+      <c r="DE60">
+        <v>302</v>
+      </c>
     </row>
-    <row r="61" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B61" s="4">
         <v>13592</v>
@@ -19528,10 +20941,34 @@
       <c r="CW61">
         <v>1</v>
       </c>
+      <c r="CX61">
+        <v>1</v>
+      </c>
+      <c r="CY61">
+        <v>1</v>
+      </c>
+      <c r="CZ61">
+        <v>1</v>
+      </c>
+      <c r="DA61">
+        <v>1</v>
+      </c>
+      <c r="DB61">
+        <v>1</v>
+      </c>
+      <c r="DC61">
+        <v>1</v>
+      </c>
+      <c r="DD61">
+        <v>1</v>
+      </c>
+      <c r="DE61">
+        <v>1</v>
+      </c>
     </row>
-    <row r="62" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B62" s="4">
         <v>18143</v>
@@ -19833,10 +21270,34 @@
       <c r="CW62">
         <v>13</v>
       </c>
+      <c r="CX62">
+        <v>14</v>
+      </c>
+      <c r="CY62">
+        <v>14</v>
+      </c>
+      <c r="CZ62">
+        <v>14</v>
+      </c>
+      <c r="DA62">
+        <v>14</v>
+      </c>
+      <c r="DB62">
+        <v>14</v>
+      </c>
+      <c r="DC62">
+        <v>14</v>
+      </c>
+      <c r="DD62">
+        <v>16</v>
+      </c>
+      <c r="DE62">
+        <v>16</v>
+      </c>
     </row>
-    <row r="63" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B63" s="4">
         <v>5367</v>
@@ -20138,10 +21599,34 @@
       <c r="CW63">
         <v>0</v>
       </c>
+      <c r="CX63">
+        <v>0</v>
+      </c>
+      <c r="CY63">
+        <v>0</v>
+      </c>
+      <c r="CZ63">
+        <v>0</v>
+      </c>
+      <c r="DA63">
+        <v>0</v>
+      </c>
+      <c r="DB63">
+        <v>0</v>
+      </c>
+      <c r="DC63">
+        <v>0</v>
+      </c>
+      <c r="DD63">
+        <v>0</v>
+      </c>
+      <c r="DE63">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B64" s="4">
         <v>897953</v>
@@ -20443,10 +21928,34 @@
       <c r="CW64">
         <v>35</v>
       </c>
+      <c r="CX64">
+        <v>36</v>
+      </c>
+      <c r="CY64">
+        <v>36</v>
+      </c>
+      <c r="CZ64">
+        <v>36</v>
+      </c>
+      <c r="DA64">
+        <v>36</v>
+      </c>
+      <c r="DB64">
+        <v>36</v>
+      </c>
+      <c r="DC64">
+        <v>36</v>
+      </c>
+      <c r="DD64">
+        <v>36</v>
+      </c>
+      <c r="DE64">
+        <v>36</v>
+      </c>
     </row>
-    <row r="65" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B65" s="4">
         <v>21737</v>
@@ -20748,10 +22257,34 @@
       <c r="CW65">
         <v>1</v>
       </c>
+      <c r="CX65">
+        <v>1</v>
+      </c>
+      <c r="CY65">
+        <v>1</v>
+      </c>
+      <c r="CZ65">
+        <v>1</v>
+      </c>
+      <c r="DA65">
+        <v>1</v>
+      </c>
+      <c r="DB65">
+        <v>1</v>
+      </c>
+      <c r="DC65">
+        <v>1</v>
+      </c>
+      <c r="DD65">
+        <v>1</v>
+      </c>
+      <c r="DE65">
+        <v>1</v>
+      </c>
     </row>
-    <row r="66" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B66" s="4">
         <v>2174</v>
@@ -21053,10 +22586,34 @@
       <c r="CW66">
         <v>0</v>
       </c>
+      <c r="CX66">
+        <v>0</v>
+      </c>
+      <c r="CY66">
+        <v>0</v>
+      </c>
+      <c r="CZ66">
+        <v>0</v>
+      </c>
+      <c r="DA66">
+        <v>0</v>
+      </c>
+      <c r="DB66">
+        <v>0</v>
+      </c>
+      <c r="DC66">
+        <v>0</v>
+      </c>
+      <c r="DD66">
+        <v>0</v>
+      </c>
+      <c r="DE66">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B67" s="4">
         <v>11743</v>
@@ -21358,10 +22915,34 @@
       <c r="CW67">
         <v>0</v>
       </c>
+      <c r="CX67">
+        <v>0</v>
+      </c>
+      <c r="CY67">
+        <v>0</v>
+      </c>
+      <c r="CZ67">
+        <v>0</v>
+      </c>
+      <c r="DA67">
+        <v>0</v>
+      </c>
+      <c r="DB67">
+        <v>0</v>
+      </c>
+      <c r="DC67">
+        <v>0</v>
+      </c>
+      <c r="DD67">
+        <v>0</v>
+      </c>
+      <c r="DE67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B68" s="4">
         <v>3410</v>
@@ -21663,10 +23244,34 @@
       <c r="CW68">
         <v>0</v>
       </c>
+      <c r="CX68">
+        <v>0</v>
+      </c>
+      <c r="CY68">
+        <v>0</v>
+      </c>
+      <c r="CZ68">
+        <v>0</v>
+      </c>
+      <c r="DA68">
+        <v>0</v>
+      </c>
+      <c r="DB68">
+        <v>0</v>
+      </c>
+      <c r="DC68">
+        <v>0</v>
+      </c>
+      <c r="DD68">
+        <v>0</v>
+      </c>
+      <c r="DE68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B69" s="4">
         <v>11796</v>
@@ -21968,10 +23573,34 @@
       <c r="CW69">
         <v>0</v>
       </c>
+      <c r="CX69">
+        <v>0</v>
+      </c>
+      <c r="CY69">
+        <v>0</v>
+      </c>
+      <c r="CZ69">
+        <v>0</v>
+      </c>
+      <c r="DA69">
+        <v>0</v>
+      </c>
+      <c r="DB69">
+        <v>0</v>
+      </c>
+      <c r="DC69">
+        <v>0</v>
+      </c>
+      <c r="DD69">
+        <v>0</v>
+      </c>
+      <c r="DE69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B70" s="4">
         <v>18205</v>
@@ -22273,10 +23902,34 @@
       <c r="CW70">
         <v>0</v>
       </c>
+      <c r="CX70">
+        <v>0</v>
+      </c>
+      <c r="CY70">
+        <v>0</v>
+      </c>
+      <c r="CZ70">
+        <v>0</v>
+      </c>
+      <c r="DA70">
+        <v>0</v>
+      </c>
+      <c r="DB70">
+        <v>0</v>
+      </c>
+      <c r="DC70">
+        <v>0</v>
+      </c>
+      <c r="DD70">
+        <v>0</v>
+      </c>
+      <c r="DE70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B71" s="4">
         <v>184841</v>
@@ -22578,10 +24231,34 @@
       <c r="CW71">
         <v>6</v>
       </c>
+      <c r="CX71">
+        <v>6</v>
+      </c>
+      <c r="CY71">
+        <v>6</v>
+      </c>
+      <c r="CZ71">
+        <v>6</v>
+      </c>
+      <c r="DA71">
+        <v>6</v>
+      </c>
+      <c r="DB71">
+        <v>6</v>
+      </c>
+      <c r="DC71">
+        <v>6</v>
+      </c>
+      <c r="DD71">
+        <v>7</v>
+      </c>
+      <c r="DE71">
+        <v>7</v>
+      </c>
     </row>
-    <row r="72" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B72" s="4">
         <v>1991</v>
@@ -22883,10 +24560,34 @@
       <c r="CW72">
         <v>0</v>
       </c>
+      <c r="CX72">
+        <v>0</v>
+      </c>
+      <c r="CY72">
+        <v>0</v>
+      </c>
+      <c r="CZ72">
+        <v>0</v>
+      </c>
+      <c r="DA72">
+        <v>0</v>
+      </c>
+      <c r="DB72">
+        <v>0</v>
+      </c>
+      <c r="DC72">
+        <v>0</v>
+      </c>
+      <c r="DD72">
+        <v>0</v>
+      </c>
+      <c r="DE72">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B73" s="4">
         <v>177721</v>
@@ -23188,10 +24889,34 @@
       <c r="CW73">
         <v>18</v>
       </c>
+      <c r="CX73">
+        <v>18</v>
+      </c>
+      <c r="CY73">
+        <v>18</v>
+      </c>
+      <c r="CZ73">
+        <v>19</v>
+      </c>
+      <c r="DA73">
+        <v>19</v>
+      </c>
+      <c r="DB73">
+        <v>19</v>
+      </c>
+      <c r="DC73">
+        <v>19</v>
+      </c>
+      <c r="DD73">
+        <v>19</v>
+      </c>
+      <c r="DE73">
+        <v>19</v>
+      </c>
     </row>
-    <row r="74" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B74" s="4">
         <v>876120</v>
@@ -23493,10 +25218,34 @@
       <c r="CW74">
         <v>93</v>
       </c>
+      <c r="CX74">
+        <v>97</v>
+      </c>
+      <c r="CY74">
+        <v>98</v>
+      </c>
+      <c r="CZ74">
+        <v>100</v>
+      </c>
+      <c r="DA74">
+        <v>100</v>
+      </c>
+      <c r="DB74">
+        <v>102</v>
+      </c>
+      <c r="DC74">
+        <v>109</v>
+      </c>
+      <c r="DD74">
+        <v>113</v>
+      </c>
+      <c r="DE74">
+        <v>119</v>
+      </c>
     </row>
-    <row r="75" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B75" s="4">
         <v>41526</v>
@@ -23798,10 +25547,34 @@
       <c r="CW75">
         <v>1</v>
       </c>
+      <c r="CX75">
+        <v>1</v>
+      </c>
+      <c r="CY75">
+        <v>1</v>
+      </c>
+      <c r="CZ75">
+        <v>1</v>
+      </c>
+      <c r="DA75">
+        <v>1</v>
+      </c>
+      <c r="DB75">
+        <v>1</v>
+      </c>
+      <c r="DC75">
+        <v>1</v>
+      </c>
+      <c r="DD75">
+        <v>1</v>
+      </c>
+      <c r="DE75">
+        <v>1</v>
+      </c>
     </row>
-    <row r="76" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B76" s="4">
         <v>16603</v>
@@ -24103,10 +25876,34 @@
       <c r="CW76">
         <v>0</v>
       </c>
+      <c r="CX76">
+        <v>0</v>
+      </c>
+      <c r="CY76">
+        <v>0</v>
+      </c>
+      <c r="CZ76">
+        <v>0</v>
+      </c>
+      <c r="DA76">
+        <v>0</v>
+      </c>
+      <c r="DB76">
+        <v>0</v>
+      </c>
+      <c r="DC76">
+        <v>0</v>
+      </c>
+      <c r="DD76">
+        <v>0</v>
+      </c>
+      <c r="DE76">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B77" s="4">
         <v>34597</v>
@@ -24408,10 +26205,34 @@
       <c r="CW77">
         <v>2</v>
       </c>
+      <c r="CX77">
+        <v>2</v>
+      </c>
+      <c r="CY77">
+        <v>2</v>
+      </c>
+      <c r="CZ77">
+        <v>2</v>
+      </c>
+      <c r="DA77">
+        <v>2</v>
+      </c>
+      <c r="DB77">
+        <v>2</v>
+      </c>
+      <c r="DC77">
+        <v>6</v>
+      </c>
+      <c r="DD77">
+        <v>6</v>
+      </c>
+      <c r="DE77">
+        <v>6</v>
+      </c>
     </row>
-    <row r="78" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B78" s="4">
         <v>26086</v>
@@ -24713,10 +26534,34 @@
       <c r="CW78">
         <v>2</v>
       </c>
+      <c r="CX78">
+        <v>2</v>
+      </c>
+      <c r="CY78">
+        <v>2</v>
+      </c>
+      <c r="CZ78">
+        <v>2</v>
+      </c>
+      <c r="DA78">
+        <v>2</v>
+      </c>
+      <c r="DB78">
+        <v>2</v>
+      </c>
+      <c r="DC78">
+        <v>2</v>
+      </c>
+      <c r="DD78">
+        <v>2</v>
+      </c>
+      <c r="DE78">
+        <v>2</v>
+      </c>
     </row>
-    <row r="79" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B79" s="4">
         <v>3985</v>
@@ -25018,10 +26863,34 @@
       <c r="CW79">
         <v>1</v>
       </c>
+      <c r="CX79">
+        <v>1</v>
+      </c>
+      <c r="CY79">
+        <v>1</v>
+      </c>
+      <c r="CZ79">
+        <v>1</v>
+      </c>
+      <c r="DA79">
+        <v>1</v>
+      </c>
+      <c r="DB79">
+        <v>1</v>
+      </c>
+      <c r="DC79">
+        <v>1</v>
+      </c>
+      <c r="DD79">
+        <v>1</v>
+      </c>
+      <c r="DE79">
+        <v>1</v>
+      </c>
     </row>
-    <row r="80" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B80" s="4">
         <v>5786</v>
@@ -25323,10 +27192,34 @@
       <c r="CW80">
         <v>0</v>
       </c>
+      <c r="CX80">
+        <v>0</v>
+      </c>
+      <c r="CY80">
+        <v>1</v>
+      </c>
+      <c r="CZ80">
+        <v>1</v>
+      </c>
+      <c r="DA80">
+        <v>1</v>
+      </c>
+      <c r="DB80">
+        <v>1</v>
+      </c>
+      <c r="DC80">
+        <v>0</v>
+      </c>
+      <c r="DD80">
+        <v>0</v>
+      </c>
+      <c r="DE80">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B81" s="4">
         <v>1240</v>
@@ -25628,10 +27521,34 @@
       <c r="CW81">
         <v>0</v>
       </c>
+      <c r="CX81">
+        <v>0</v>
+      </c>
+      <c r="CY81">
+        <v>0</v>
+      </c>
+      <c r="CZ81">
+        <v>0</v>
+      </c>
+      <c r="DA81">
+        <v>0</v>
+      </c>
+      <c r="DB81">
+        <v>0</v>
+      </c>
+      <c r="DC81">
+        <v>0</v>
+      </c>
+      <c r="DD81">
+        <v>0</v>
+      </c>
+      <c r="DE81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B82" s="4">
         <v>840383</v>
@@ -25933,10 +27850,34 @@
       <c r="CW82">
         <v>47</v>
       </c>
+      <c r="CX82">
+        <v>47</v>
+      </c>
+      <c r="CY82">
+        <v>47</v>
+      </c>
+      <c r="CZ82">
+        <v>47</v>
+      </c>
+      <c r="DA82">
+        <v>49</v>
+      </c>
+      <c r="DB82">
+        <v>49</v>
+      </c>
+      <c r="DC82">
+        <v>49</v>
+      </c>
+      <c r="DD82">
+        <v>50</v>
+      </c>
+      <c r="DE82">
+        <v>50</v>
+      </c>
     </row>
-    <row r="83" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B83" s="4">
         <v>10924</v>
@@ -26238,10 +28179,34 @@
       <c r="CW83">
         <v>0</v>
       </c>
+      <c r="CX83">
+        <v>0</v>
+      </c>
+      <c r="CY83">
+        <v>0</v>
+      </c>
+      <c r="CZ83">
+        <v>0</v>
+      </c>
+      <c r="DA83">
+        <v>0</v>
+      </c>
+      <c r="DB83">
+        <v>0</v>
+      </c>
+      <c r="DC83">
+        <v>0</v>
+      </c>
+      <c r="DD83">
+        <v>0</v>
+      </c>
+      <c r="DE83">
+        <v>0</v>
+      </c>
     </row>
-    <row r="84" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B84" s="4">
         <v>19860</v>
@@ -26543,10 +28508,34 @@
       <c r="CW84">
         <v>0</v>
       </c>
+      <c r="CX84">
+        <v>0</v>
+      </c>
+      <c r="CY84">
+        <v>0</v>
+      </c>
+      <c r="CZ84">
+        <v>0</v>
+      </c>
+      <c r="DA84">
+        <v>0</v>
+      </c>
+      <c r="DB84">
+        <v>0</v>
+      </c>
+      <c r="DC84">
+        <v>0</v>
+      </c>
+      <c r="DD84">
+        <v>0</v>
+      </c>
+      <c r="DE84">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B85" s="4">
         <v>20023</v>
@@ -26848,10 +28837,34 @@
       <c r="CW85">
         <v>0</v>
       </c>
+      <c r="CX85">
+        <v>0</v>
+      </c>
+      <c r="CY85">
+        <v>0</v>
+      </c>
+      <c r="CZ85">
+        <v>0</v>
+      </c>
+      <c r="DA85">
+        <v>0</v>
+      </c>
+      <c r="DB85">
+        <v>0</v>
+      </c>
+      <c r="DC85">
+        <v>0</v>
+      </c>
+      <c r="DD85">
+        <v>0</v>
+      </c>
+      <c r="DE85">
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B86" s="4">
         <v>22121</v>
@@ -27153,10 +29166,34 @@
       <c r="CW86">
         <v>0</v>
       </c>
+      <c r="CX86">
+        <v>0</v>
+      </c>
+      <c r="CY86">
+        <v>0</v>
+      </c>
+      <c r="CZ86">
+        <v>0</v>
+      </c>
+      <c r="DA86">
+        <v>0</v>
+      </c>
+      <c r="DB86">
+        <v>0</v>
+      </c>
+      <c r="DC86">
+        <v>0</v>
+      </c>
+      <c r="DD86">
+        <v>0</v>
+      </c>
+      <c r="DE86">
+        <v>0</v>
+      </c>
     </row>
-    <row r="87" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B87" s="4">
         <v>355196</v>
@@ -27458,10 +29495,34 @@
       <c r="CW87">
         <v>38</v>
       </c>
+      <c r="CX87">
+        <v>38</v>
+      </c>
+      <c r="CY87">
+        <v>40</v>
+      </c>
+      <c r="CZ87">
+        <v>40</v>
+      </c>
+      <c r="DA87">
+        <v>40</v>
+      </c>
+      <c r="DB87">
+        <v>40</v>
+      </c>
+      <c r="DC87">
+        <v>40</v>
+      </c>
+      <c r="DD87">
+        <v>40</v>
+      </c>
+      <c r="DE87">
+        <v>40</v>
+      </c>
     </row>
-    <row r="88" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B88" s="4">
         <v>6784</v>
@@ -27763,10 +29824,34 @@
       <c r="CW88">
         <v>0</v>
       </c>
+      <c r="CX88">
+        <v>0</v>
+      </c>
+      <c r="CY88">
+        <v>0</v>
+      </c>
+      <c r="CZ88">
+        <v>0</v>
+      </c>
+      <c r="DA88">
+        <v>0</v>
+      </c>
+      <c r="DB88">
+        <v>0</v>
+      </c>
+      <c r="DC88">
+        <v>0</v>
+      </c>
+      <c r="DD88">
+        <v>0</v>
+      </c>
+      <c r="DE88">
+        <v>0</v>
+      </c>
     </row>
-    <row r="89" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B89" s="4">
         <v>26191</v>
@@ -28068,10 +30153,34 @@
       <c r="CW89">
         <v>0</v>
       </c>
+      <c r="CX89">
+        <v>0</v>
+      </c>
+      <c r="CY89">
+        <v>0</v>
+      </c>
+      <c r="CZ89">
+        <v>0</v>
+      </c>
+      <c r="DA89">
+        <v>0</v>
+      </c>
+      <c r="DB89">
+        <v>0</v>
+      </c>
+      <c r="DC89">
+        <v>0</v>
+      </c>
+      <c r="DD89">
+        <v>0</v>
+      </c>
+      <c r="DE89">
+        <v>0</v>
+      </c>
     </row>
-    <row r="90" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B90" s="4">
         <v>1365</v>
@@ -28373,10 +30482,34 @@
       <c r="CW90">
         <v>0</v>
       </c>
+      <c r="CX90">
+        <v>0</v>
+      </c>
+      <c r="CY90">
+        <v>0</v>
+      </c>
+      <c r="CZ90">
+        <v>0</v>
+      </c>
+      <c r="DA90">
+        <v>0</v>
+      </c>
+      <c r="DB90">
+        <v>0</v>
+      </c>
+      <c r="DC90">
+        <v>0</v>
+      </c>
+      <c r="DD90">
+        <v>0</v>
+      </c>
+      <c r="DE90">
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B91" s="4">
         <v>7717</v>
@@ -28678,10 +30811,34 @@
       <c r="CW91">
         <v>0</v>
       </c>
+      <c r="CX91">
+        <v>0</v>
+      </c>
+      <c r="CY91">
+        <v>0</v>
+      </c>
+      <c r="CZ91">
+        <v>0</v>
+      </c>
+      <c r="DA91">
+        <v>0</v>
+      </c>
+      <c r="DB91">
+        <v>0</v>
+      </c>
+      <c r="DC91">
+        <v>0</v>
+      </c>
+      <c r="DD91">
+        <v>0</v>
+      </c>
+      <c r="DE91">
+        <v>0</v>
+      </c>
     </row>
-    <row r="92" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B92" s="4">
         <v>21347</v>
@@ -28983,10 +31140,34 @@
       <c r="CW92">
         <v>3</v>
       </c>
+      <c r="CX92">
+        <v>4</v>
+      </c>
+      <c r="CY92">
+        <v>4</v>
+      </c>
+      <c r="CZ92">
+        <v>4</v>
+      </c>
+      <c r="DA92">
+        <v>4</v>
+      </c>
+      <c r="DB92">
+        <v>4</v>
+      </c>
+      <c r="DC92">
+        <v>4</v>
+      </c>
+      <c r="DD92">
+        <v>4</v>
+      </c>
+      <c r="DE92">
+        <v>4</v>
+      </c>
     </row>
-    <row r="93" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B93" s="4">
         <v>24252</v>
@@ -29288,10 +31469,34 @@
       <c r="CW93">
         <v>3</v>
       </c>
+      <c r="CX93">
+        <v>3</v>
+      </c>
+      <c r="CY93">
+        <v>3</v>
+      </c>
+      <c r="CZ93">
+        <v>3</v>
+      </c>
+      <c r="DA93">
+        <v>3</v>
+      </c>
+      <c r="DB93">
+        <v>3</v>
+      </c>
+      <c r="DC93">
+        <v>3</v>
+      </c>
+      <c r="DD93">
+        <v>4</v>
+      </c>
+      <c r="DE93">
+        <v>4</v>
+      </c>
     </row>
-    <row r="94" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B94" s="4">
         <v>131710</v>
@@ -29593,10 +31798,34 @@
       <c r="CW94">
         <v>4</v>
       </c>
+      <c r="CX94">
+        <v>4</v>
+      </c>
+      <c r="CY94">
+        <v>4</v>
+      </c>
+      <c r="CZ94">
+        <v>4</v>
+      </c>
+      <c r="DA94">
+        <v>4</v>
+      </c>
+      <c r="DB94">
+        <v>4</v>
+      </c>
+      <c r="DC94">
+        <v>4</v>
+      </c>
+      <c r="DD94">
+        <v>4</v>
+      </c>
+      <c r="DE94">
+        <v>4</v>
+      </c>
     </row>
-    <row r="95" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B95" s="4">
         <v>125730</v>
@@ -29898,10 +32127,34 @@
       <c r="CW95">
         <v>11</v>
       </c>
+      <c r="CX95">
+        <v>11</v>
+      </c>
+      <c r="CY95">
+        <v>11</v>
+      </c>
+      <c r="CZ95">
+        <v>11</v>
+      </c>
+      <c r="DA95">
+        <v>11</v>
+      </c>
+      <c r="DB95">
+        <v>11</v>
+      </c>
+      <c r="DC95">
+        <v>12</v>
+      </c>
+      <c r="DD95">
+        <v>12</v>
+      </c>
+      <c r="DE95">
+        <v>12</v>
+      </c>
     </row>
-    <row r="96" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B96" s="4">
         <v>28930</v>
@@ -30203,10 +32456,34 @@
       <c r="CW96">
         <v>1</v>
       </c>
+      <c r="CX96">
+        <v>1</v>
+      </c>
+      <c r="CY96">
+        <v>1</v>
+      </c>
+      <c r="CZ96">
+        <v>2</v>
+      </c>
+      <c r="DA96">
+        <v>2</v>
+      </c>
+      <c r="DB96">
+        <v>2</v>
+      </c>
+      <c r="DC96">
+        <v>2</v>
+      </c>
+      <c r="DD96">
+        <v>2</v>
+      </c>
+      <c r="DE96">
+        <v>2</v>
+      </c>
     </row>
-    <row r="97" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B97" s="4">
         <v>170266</v>
@@ -30508,10 +32785,34 @@
       <c r="CW97">
         <v>0</v>
       </c>
+      <c r="CX97">
+        <v>0</v>
+      </c>
+      <c r="CY97">
+        <v>0</v>
+      </c>
+      <c r="CZ97">
+        <v>0</v>
+      </c>
+      <c r="DA97">
+        <v>0</v>
+      </c>
+      <c r="DB97">
+        <v>0</v>
+      </c>
+      <c r="DC97">
+        <v>0</v>
+      </c>
+      <c r="DD97">
+        <v>0</v>
+      </c>
+      <c r="DE97">
+        <v>0</v>
+      </c>
     </row>
-    <row r="98" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B98" s="4">
         <v>33202</v>
@@ -30813,10 +33114,34 @@
       <c r="CW98">
         <v>5</v>
       </c>
+      <c r="CX98">
+        <v>5</v>
+      </c>
+      <c r="CY98">
+        <v>5</v>
+      </c>
+      <c r="CZ98">
+        <v>5</v>
+      </c>
+      <c r="DA98">
+        <v>5</v>
+      </c>
+      <c r="DB98">
+        <v>5</v>
+      </c>
+      <c r="DC98">
+        <v>5</v>
+      </c>
+      <c r="DD98">
+        <v>5</v>
+      </c>
+      <c r="DE98">
+        <v>5</v>
+      </c>
     </row>
-    <row r="99" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B99" s="4">
         <v>3305</v>
@@ -31118,10 +33443,34 @@
       <c r="CW99">
         <v>0</v>
       </c>
+      <c r="CX99">
+        <v>1</v>
+      </c>
+      <c r="CY99">
+        <v>1</v>
+      </c>
+      <c r="CZ99">
+        <v>1</v>
+      </c>
+      <c r="DA99">
+        <v>1</v>
+      </c>
+      <c r="DB99">
+        <v>1</v>
+      </c>
+      <c r="DC99">
+        <v>1</v>
+      </c>
+      <c r="DD99">
+        <v>1</v>
+      </c>
+      <c r="DE99">
+        <v>1</v>
+      </c>
     </row>
-    <row r="100" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B100" s="4">
         <v>8220</v>
@@ -31423,10 +33772,34 @@
       <c r="CW100">
         <v>1</v>
       </c>
+      <c r="CX100">
+        <v>1</v>
+      </c>
+      <c r="CY100">
+        <v>1</v>
+      </c>
+      <c r="CZ100">
+        <v>1</v>
+      </c>
+      <c r="DA100">
+        <v>1</v>
+      </c>
+      <c r="DB100">
+        <v>1</v>
+      </c>
+      <c r="DC100">
+        <v>1</v>
+      </c>
+      <c r="DD100">
+        <v>1</v>
+      </c>
+      <c r="DE100">
+        <v>1</v>
+      </c>
     </row>
-    <row r="101" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B101" s="4">
         <v>5820</v>
@@ -31728,10 +34101,34 @@
       <c r="CW101">
         <v>2</v>
       </c>
+      <c r="CX101">
+        <v>2</v>
+      </c>
+      <c r="CY101">
+        <v>2</v>
+      </c>
+      <c r="CZ101">
+        <v>2</v>
+      </c>
+      <c r="DA101">
+        <v>2</v>
+      </c>
+      <c r="DB101">
+        <v>2</v>
+      </c>
+      <c r="DC101">
+        <v>2</v>
+      </c>
+      <c r="DD101">
+        <v>2</v>
+      </c>
+      <c r="DE101">
+        <v>2</v>
+      </c>
     </row>
-    <row r="102" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B102" s="4">
         <v>3870</v>
@@ -32033,10 +34430,34 @@
       <c r="CW102">
         <v>0</v>
       </c>
+      <c r="CX102">
+        <v>0</v>
+      </c>
+      <c r="CY102">
+        <v>0</v>
+      </c>
+      <c r="CZ102">
+        <v>0</v>
+      </c>
+      <c r="DA102">
+        <v>0</v>
+      </c>
+      <c r="DB102">
+        <v>0</v>
+      </c>
+      <c r="DC102">
+        <v>0</v>
+      </c>
+      <c r="DD102">
+        <v>0</v>
+      </c>
+      <c r="DE102">
+        <v>0</v>
+      </c>
     </row>
-    <row r="103" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B103" s="4">
         <v>56486</v>
@@ -32338,10 +34759,34 @@
       <c r="CW103">
         <v>5</v>
       </c>
+      <c r="CX103">
+        <v>5</v>
+      </c>
+      <c r="CY103">
+        <v>5</v>
+      </c>
+      <c r="CZ103">
+        <v>5</v>
+      </c>
+      <c r="DA103">
+        <v>5</v>
+      </c>
+      <c r="DB103">
+        <v>5</v>
+      </c>
+      <c r="DC103">
+        <v>5</v>
+      </c>
+      <c r="DD103">
+        <v>5</v>
+      </c>
+      <c r="DE103">
+        <v>5</v>
+      </c>
     </row>
-    <row r="104" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B104" s="4">
         <v>4978845</v>
@@ -32643,10 +35088,34 @@
       <c r="CW104">
         <v>262</v>
       </c>
+      <c r="CX104">
+        <v>267</v>
+      </c>
+      <c r="CY104">
+        <v>267</v>
+      </c>
+      <c r="CZ104">
+        <v>271</v>
+      </c>
+      <c r="DA104">
+        <v>275</v>
+      </c>
+      <c r="DB104">
+        <v>275</v>
+      </c>
+      <c r="DC104">
+        <v>284</v>
+      </c>
+      <c r="DD104">
+        <v>289</v>
+      </c>
+      <c r="DE104">
+        <v>298</v>
+      </c>
     </row>
-    <row r="105" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B105" s="4">
         <v>68247</v>
@@ -32948,10 +35417,34 @@
       <c r="CW105">
         <v>28</v>
       </c>
+      <c r="CX105">
+        <v>28</v>
+      </c>
+      <c r="CY105">
+        <v>28</v>
+      </c>
+      <c r="CZ105">
+        <v>28</v>
+      </c>
+      <c r="DA105">
+        <v>28</v>
+      </c>
+      <c r="DB105">
+        <v>28</v>
+      </c>
+      <c r="DC105">
+        <v>29</v>
+      </c>
+      <c r="DD105">
+        <v>29</v>
+      </c>
+      <c r="DE105">
+        <v>30</v>
+      </c>
     </row>
-    <row r="106" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B106" s="4">
         <v>6067</v>
@@ -33253,10 +35746,34 @@
       <c r="CW106">
         <v>2</v>
       </c>
+      <c r="CX106">
+        <v>2</v>
+      </c>
+      <c r="CY106">
+        <v>2</v>
+      </c>
+      <c r="CZ106">
+        <v>2</v>
+      </c>
+      <c r="DA106">
+        <v>2</v>
+      </c>
+      <c r="DB106">
+        <v>2</v>
+      </c>
+      <c r="DC106">
+        <v>2</v>
+      </c>
+      <c r="DD106">
+        <v>2</v>
+      </c>
+      <c r="DE106">
+        <v>2</v>
+      </c>
     </row>
-    <row r="107" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B107" s="4">
         <v>6197</v>
@@ -33558,10 +36075,34 @@
       <c r="CW107">
         <v>0</v>
       </c>
+      <c r="CX107">
+        <v>0</v>
+      </c>
+      <c r="CY107">
+        <v>0</v>
+      </c>
+      <c r="CZ107">
+        <v>0</v>
+      </c>
+      <c r="DA107">
+        <v>0</v>
+      </c>
+      <c r="DB107">
+        <v>0</v>
+      </c>
+      <c r="DC107">
+        <v>0</v>
+      </c>
+      <c r="DD107">
+        <v>0</v>
+      </c>
+      <c r="DE107">
+        <v>0</v>
+      </c>
     </row>
-    <row r="108" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B108" s="4">
         <v>234896</v>
@@ -33863,10 +36404,34 @@
       <c r="CW108">
         <v>5</v>
       </c>
+      <c r="CX108">
+        <v>5</v>
+      </c>
+      <c r="CY108">
+        <v>5</v>
+      </c>
+      <c r="CZ108">
+        <v>5</v>
+      </c>
+      <c r="DA108">
+        <v>5</v>
+      </c>
+      <c r="DB108">
+        <v>5</v>
+      </c>
+      <c r="DC108">
+        <v>5</v>
+      </c>
+      <c r="DD108">
+        <v>5</v>
+      </c>
+      <c r="DE108">
+        <v>5</v>
+      </c>
     </row>
-    <row r="109" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B109" s="4">
         <v>4644</v>
@@ -34168,10 +36733,34 @@
       <c r="CW109">
         <v>0</v>
       </c>
+      <c r="CX109">
+        <v>0</v>
+      </c>
+      <c r="CY109">
+        <v>0</v>
+      </c>
+      <c r="CZ109">
+        <v>0</v>
+      </c>
+      <c r="DA109">
+        <v>0</v>
+      </c>
+      <c r="DB109">
+        <v>0</v>
+      </c>
+      <c r="DC109">
+        <v>0</v>
+      </c>
+      <c r="DD109">
+        <v>0</v>
+      </c>
+      <c r="DE109">
+        <v>0</v>
+      </c>
     </row>
-    <row r="110" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B110" s="4">
         <v>81179</v>
@@ -34473,10 +37062,34 @@
       <c r="CW110">
         <v>3</v>
       </c>
+      <c r="CX110">
+        <v>3</v>
+      </c>
+      <c r="CY110">
+        <v>3</v>
+      </c>
+      <c r="CZ110">
+        <v>3</v>
+      </c>
+      <c r="DA110">
+        <v>3</v>
+      </c>
+      <c r="DB110">
+        <v>3</v>
+      </c>
+      <c r="DC110">
+        <v>3</v>
+      </c>
+      <c r="DD110">
+        <v>3</v>
+      </c>
+      <c r="DE110">
+        <v>3</v>
+      </c>
     </row>
-    <row r="111" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B111" s="4">
         <v>870366</v>
@@ -34778,10 +37391,34 @@
       <c r="CW111">
         <v>12</v>
       </c>
+      <c r="CX111">
+        <v>12</v>
+      </c>
+      <c r="CY111">
+        <v>12</v>
+      </c>
+      <c r="CZ111">
+        <v>12</v>
+      </c>
+      <c r="DA111">
+        <v>12</v>
+      </c>
+      <c r="DB111">
+        <v>12</v>
+      </c>
+      <c r="DC111">
+        <v>15</v>
+      </c>
+      <c r="DD111">
+        <v>17</v>
+      </c>
+      <c r="DE111">
+        <v>19</v>
+      </c>
     </row>
-    <row r="112" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B112" s="4">
         <v>35673</v>
@@ -35083,10 +37720,34 @@
       <c r="CW112">
         <v>1</v>
       </c>
+      <c r="CX112">
+        <v>1</v>
+      </c>
+      <c r="CY112">
+        <v>1</v>
+      </c>
+      <c r="CZ112">
+        <v>1</v>
+      </c>
+      <c r="DA112">
+        <v>1</v>
+      </c>
+      <c r="DB112">
+        <v>1</v>
+      </c>
+      <c r="DC112">
+        <v>1</v>
+      </c>
+      <c r="DD112">
+        <v>1</v>
+      </c>
+      <c r="DE112">
+        <v>1</v>
+      </c>
     </row>
-    <row r="113" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B113" s="4">
         <v>24636</v>
@@ -35388,10 +38049,34 @@
       <c r="CW113">
         <v>1</v>
       </c>
+      <c r="CX113">
+        <v>1</v>
+      </c>
+      <c r="CY113">
+        <v>1</v>
+      </c>
+      <c r="CZ113">
+        <v>1</v>
+      </c>
+      <c r="DA113">
+        <v>1</v>
+      </c>
+      <c r="DB113">
+        <v>1</v>
+      </c>
+      <c r="DC113">
+        <v>1</v>
+      </c>
+      <c r="DD113">
+        <v>1</v>
+      </c>
+      <c r="DE113">
+        <v>1</v>
+      </c>
     </row>
-    <row r="114" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B114" s="4">
         <v>58643</v>
@@ -35693,10 +38378,34 @@
       <c r="CW114">
         <v>4</v>
       </c>
+      <c r="CX114">
+        <v>4</v>
+      </c>
+      <c r="CY114">
+        <v>4</v>
+      </c>
+      <c r="CZ114">
+        <v>4</v>
+      </c>
+      <c r="DA114">
+        <v>4</v>
+      </c>
+      <c r="DB114">
+        <v>4</v>
+      </c>
+      <c r="DC114">
+        <v>4</v>
+      </c>
+      <c r="DD114">
+        <v>4</v>
+      </c>
+      <c r="DE114">
+        <v>4</v>
+      </c>
     </row>
-    <row r="115" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B115" s="4">
         <v>37040</v>
@@ -35998,10 +38707,34 @@
       <c r="CW115">
         <v>0</v>
       </c>
+      <c r="CX115">
+        <v>0</v>
+      </c>
+      <c r="CY115">
+        <v>0</v>
+      </c>
+      <c r="CZ115">
+        <v>0</v>
+      </c>
+      <c r="DA115">
+        <v>0</v>
+      </c>
+      <c r="DB115">
+        <v>0</v>
+      </c>
+      <c r="DC115">
+        <v>0</v>
+      </c>
+      <c r="DD115">
+        <v>0</v>
+      </c>
+      <c r="DE115">
+        <v>0</v>
+      </c>
     </row>
-    <row r="116" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B116" s="4">
         <v>22620</v>
@@ -36303,10 +39036,34 @@
       <c r="CW116">
         <v>0</v>
       </c>
+      <c r="CX116">
+        <v>0</v>
+      </c>
+      <c r="CY116">
+        <v>0</v>
+      </c>
+      <c r="CZ116">
+        <v>0</v>
+      </c>
+      <c r="DA116">
+        <v>0</v>
+      </c>
+      <c r="DB116">
+        <v>0</v>
+      </c>
+      <c r="DC116">
+        <v>0</v>
+      </c>
+      <c r="DD116">
+        <v>0</v>
+      </c>
+      <c r="DE116">
+        <v>0</v>
+      </c>
     </row>
-    <row r="117" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B117" s="4">
         <v>41236</v>
@@ -36608,10 +39365,34 @@
       <c r="CW117">
         <v>1</v>
       </c>
+      <c r="CX117">
+        <v>1</v>
+      </c>
+      <c r="CY117">
+        <v>1</v>
+      </c>
+      <c r="CZ117">
+        <v>1</v>
+      </c>
+      <c r="DA117">
+        <v>1</v>
+      </c>
+      <c r="DB117">
+        <v>1</v>
+      </c>
+      <c r="DC117">
+        <v>1</v>
+      </c>
+      <c r="DD117">
+        <v>1</v>
+      </c>
+      <c r="DE117">
+        <v>1</v>
+      </c>
     </row>
-    <row r="118" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B118" s="4">
         <v>3400</v>
@@ -36913,10 +39694,34 @@
       <c r="CW118">
         <v>0</v>
       </c>
+      <c r="CX118">
+        <v>0</v>
+      </c>
+      <c r="CY118">
+        <v>0</v>
+      </c>
+      <c r="CZ118">
+        <v>0</v>
+      </c>
+      <c r="DA118">
+        <v>0</v>
+      </c>
+      <c r="DB118">
+        <v>0</v>
+      </c>
+      <c r="DC118">
+        <v>0</v>
+      </c>
+      <c r="DD118">
+        <v>0</v>
+      </c>
+      <c r="DE118">
+        <v>0</v>
+      </c>
     </row>
-    <row r="119" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B119" s="4">
         <v>95324</v>
@@ -37218,10 +40023,34 @@
       <c r="CW119">
         <v>5</v>
       </c>
+      <c r="CX119">
+        <v>5</v>
+      </c>
+      <c r="CY119">
+        <v>5</v>
+      </c>
+      <c r="CZ119">
+        <v>5</v>
+      </c>
+      <c r="DA119">
+        <v>5</v>
+      </c>
+      <c r="DB119">
+        <v>5</v>
+      </c>
+      <c r="DC119">
+        <v>5</v>
+      </c>
+      <c r="DD119">
+        <v>5</v>
+      </c>
+      <c r="DE119">
+        <v>5</v>
+      </c>
     </row>
-    <row r="120" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B120" s="4">
         <v>21461</v>
@@ -37523,10 +40352,34 @@
       <c r="CW120">
         <v>0</v>
       </c>
+      <c r="CX120">
+        <v>0</v>
+      </c>
+      <c r="CY120">
+        <v>0</v>
+      </c>
+      <c r="CZ120">
+        <v>0</v>
+      </c>
+      <c r="DA120">
+        <v>0</v>
+      </c>
+      <c r="DB120">
+        <v>0</v>
+      </c>
+      <c r="DC120">
+        <v>0</v>
+      </c>
+      <c r="DD120">
+        <v>0</v>
+      </c>
+      <c r="DE120">
+        <v>0</v>
+      </c>
     </row>
-    <row r="121" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B121" s="4">
         <v>1508</v>
@@ -37828,10 +40681,34 @@
       <c r="CW121">
         <v>0</v>
       </c>
+      <c r="CX121">
+        <v>0</v>
+      </c>
+      <c r="CY121">
+        <v>0</v>
+      </c>
+      <c r="CZ121">
+        <v>0</v>
+      </c>
+      <c r="DA121">
+        <v>0</v>
+      </c>
+      <c r="DB121">
+        <v>0</v>
+      </c>
+      <c r="DC121">
+        <v>0</v>
+      </c>
+      <c r="DD121">
+        <v>0</v>
+      </c>
+      <c r="DE121">
+        <v>0</v>
+      </c>
     </row>
-    <row r="122" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B122" s="4">
         <v>8841</v>
@@ -38133,10 +41010,34 @@
       <c r="CW122">
         <v>0</v>
       </c>
+      <c r="CX122">
+        <v>0</v>
+      </c>
+      <c r="CY122">
+        <v>0</v>
+      </c>
+      <c r="CZ122">
+        <v>0</v>
+      </c>
+      <c r="DA122">
+        <v>0</v>
+      </c>
+      <c r="DB122">
+        <v>0</v>
+      </c>
+      <c r="DC122">
+        <v>0</v>
+      </c>
+      <c r="DD122">
+        <v>0</v>
+      </c>
+      <c r="DE122">
+        <v>0</v>
+      </c>
     </row>
-    <row r="123" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B123" s="4">
         <v>15899</v>
@@ -38438,10 +41339,34 @@
       <c r="CW123">
         <v>1</v>
       </c>
+      <c r="CX123">
+        <v>1</v>
+      </c>
+      <c r="CY123">
+        <v>1</v>
+      </c>
+      <c r="CZ123">
+        <v>1</v>
+      </c>
+      <c r="DA123">
+        <v>1</v>
+      </c>
+      <c r="DB123">
+        <v>1</v>
+      </c>
+      <c r="DC123">
+        <v>1</v>
+      </c>
+      <c r="DD123">
+        <v>1</v>
+      </c>
+      <c r="DE123">
+        <v>1</v>
+      </c>
     </row>
-    <row r="124" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B124" s="4">
         <v>35525</v>
@@ -38743,10 +41668,34 @@
       <c r="CW124">
         <v>1</v>
       </c>
+      <c r="CX124">
+        <v>1</v>
+      </c>
+      <c r="CY124">
+        <v>1</v>
+      </c>
+      <c r="CZ124">
+        <v>1</v>
+      </c>
+      <c r="DA124">
+        <v>1</v>
+      </c>
+      <c r="DB124">
+        <v>1</v>
+      </c>
+      <c r="DC124">
+        <v>1</v>
+      </c>
+      <c r="DD124">
+        <v>1</v>
+      </c>
+      <c r="DE124">
+        <v>1</v>
+      </c>
     </row>
-    <row r="125" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B125" s="4">
         <v>2113</v>
@@ -39048,10 +41997,34 @@
       <c r="CW125">
         <v>0</v>
       </c>
+      <c r="CX125">
+        <v>0</v>
+      </c>
+      <c r="CY125">
+        <v>0</v>
+      </c>
+      <c r="CZ125">
+        <v>0</v>
+      </c>
+      <c r="DA125">
+        <v>0</v>
+      </c>
+      <c r="DB125">
+        <v>0</v>
+      </c>
+      <c r="DC125">
+        <v>0</v>
+      </c>
+      <c r="DD125">
+        <v>0</v>
+      </c>
+      <c r="DE125">
+        <v>0</v>
+      </c>
     </row>
-    <row r="126" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B126" s="4">
         <v>258678</v>
@@ -39353,10 +42326,34 @@
       <c r="CW126">
         <v>31</v>
       </c>
+      <c r="CX126">
+        <v>31</v>
+      </c>
+      <c r="CY126">
+        <v>31</v>
+      </c>
+      <c r="CZ126">
+        <v>31</v>
+      </c>
+      <c r="DA126">
+        <v>31</v>
+      </c>
+      <c r="DB126">
+        <v>31</v>
+      </c>
+      <c r="DC126">
+        <v>32</v>
+      </c>
+      <c r="DD126">
+        <v>32</v>
+      </c>
+      <c r="DE126">
+        <v>32</v>
+      </c>
     </row>
-    <row r="127" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B127" s="4">
         <v>5077</v>
@@ -39658,10 +42655,34 @@
       <c r="CW127">
         <v>0</v>
       </c>
+      <c r="CX127">
+        <v>0</v>
+      </c>
+      <c r="CY127">
+        <v>0</v>
+      </c>
+      <c r="CZ127">
+        <v>0</v>
+      </c>
+      <c r="DA127">
+        <v>0</v>
+      </c>
+      <c r="DB127">
+        <v>0</v>
+      </c>
+      <c r="DC127">
+        <v>0</v>
+      </c>
+      <c r="DD127">
+        <v>0</v>
+      </c>
+      <c r="DE127">
+        <v>0</v>
+      </c>
     </row>
-    <row r="128" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B128" s="4">
         <v>42890</v>
@@ -39963,10 +42984,34 @@
       <c r="CW128">
         <v>0</v>
       </c>
+      <c r="CX128">
+        <v>0</v>
+      </c>
+      <c r="CY128">
+        <v>0</v>
+      </c>
+      <c r="CZ128">
+        <v>0</v>
+      </c>
+      <c r="DA128">
+        <v>0</v>
+      </c>
+      <c r="DB128">
+        <v>0</v>
+      </c>
+      <c r="DC128">
+        <v>0</v>
+      </c>
+      <c r="DD128">
+        <v>0</v>
+      </c>
+      <c r="DE128">
+        <v>0</v>
+      </c>
     </row>
-    <row r="129" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B129" s="4">
         <v>171701</v>
@@ -40268,10 +43313,34 @@
       <c r="CW129">
         <v>4</v>
       </c>
+      <c r="CX129">
+        <v>4</v>
+      </c>
+      <c r="CY129">
+        <v>4</v>
+      </c>
+      <c r="CZ129">
+        <v>4</v>
+      </c>
+      <c r="DA129">
+        <v>4</v>
+      </c>
+      <c r="DB129">
+        <v>4</v>
+      </c>
+      <c r="DC129">
+        <v>4</v>
+      </c>
+      <c r="DD129">
+        <v>4</v>
+      </c>
+      <c r="DE129">
+        <v>4</v>
+      </c>
     </row>
-    <row r="130" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B130" s="4">
         <v>19735</v>
@@ -40573,10 +43642,34 @@
       <c r="CW130">
         <v>0</v>
       </c>
+      <c r="CX130">
+        <v>0</v>
+      </c>
+      <c r="CY130">
+        <v>0</v>
+      </c>
+      <c r="CZ130">
+        <v>0</v>
+      </c>
+      <c r="DA130">
+        <v>0</v>
+      </c>
+      <c r="DB130">
+        <v>0</v>
+      </c>
+      <c r="DC130">
+        <v>0</v>
+      </c>
+      <c r="DD130">
+        <v>0</v>
+      </c>
+      <c r="DE130">
+        <v>0</v>
+      </c>
     </row>
-    <row r="131" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B131" s="4">
         <v>15393</v>
@@ -40878,10 +43971,34 @@
       <c r="CW131">
         <v>0</v>
       </c>
+      <c r="CX131">
+        <v>0</v>
+      </c>
+      <c r="CY131">
+        <v>0</v>
+      </c>
+      <c r="CZ131">
+        <v>0</v>
+      </c>
+      <c r="DA131">
+        <v>0</v>
+      </c>
+      <c r="DB131">
+        <v>0</v>
+      </c>
+      <c r="DC131">
+        <v>0</v>
+      </c>
+      <c r="DD131">
+        <v>0</v>
+      </c>
+      <c r="DE131">
+        <v>0</v>
+      </c>
     </row>
-    <row r="132" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B132" s="4">
         <v>125134</v>
@@ -41183,10 +44300,34 @@
       <c r="CW132">
         <v>2</v>
       </c>
+      <c r="CX132">
+        <v>3</v>
+      </c>
+      <c r="CY132">
+        <v>3</v>
+      </c>
+      <c r="CZ132">
+        <v>3</v>
+      </c>
+      <c r="DA132">
+        <v>3</v>
+      </c>
+      <c r="DB132">
+        <v>3</v>
+      </c>
+      <c r="DC132">
+        <v>4</v>
+      </c>
+      <c r="DD132">
+        <v>4</v>
+      </c>
+      <c r="DE132">
+        <v>4</v>
+      </c>
     </row>
-    <row r="133" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B133" s="4">
         <v>46278</v>
@@ -41488,10 +44629,34 @@
       <c r="CW133">
         <v>0</v>
       </c>
+      <c r="CX133">
+        <v>0</v>
+      </c>
+      <c r="CY133">
+        <v>0</v>
+      </c>
+      <c r="CZ133">
+        <v>0</v>
+      </c>
+      <c r="DA133">
+        <v>0</v>
+      </c>
+      <c r="DB133">
+        <v>0</v>
+      </c>
+      <c r="DC133">
+        <v>0</v>
+      </c>
+      <c r="DD133">
+        <v>0</v>
+      </c>
+      <c r="DE133">
+        <v>0</v>
+      </c>
     </row>
-    <row r="134" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B134" s="4">
         <v>476</v>
@@ -41793,10 +44958,34 @@
       <c r="CW134">
         <v>0</v>
       </c>
+      <c r="CX134">
+        <v>0</v>
+      </c>
+      <c r="CY134">
+        <v>0</v>
+      </c>
+      <c r="CZ134">
+        <v>0</v>
+      </c>
+      <c r="DA134">
+        <v>0</v>
+      </c>
+      <c r="DB134">
+        <v>0</v>
+      </c>
+      <c r="DC134">
+        <v>0</v>
+      </c>
+      <c r="DD134">
+        <v>0</v>
+      </c>
+      <c r="DE134">
+        <v>0</v>
+      </c>
     </row>
-    <row r="135" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B135" s="4">
         <v>795</v>
@@ -42098,10 +45287,34 @@
       <c r="CW135">
         <v>0</v>
       </c>
+      <c r="CX135">
+        <v>0</v>
+      </c>
+      <c r="CY135">
+        <v>0</v>
+      </c>
+      <c r="CZ135">
+        <v>0</v>
+      </c>
+      <c r="DA135">
+        <v>0</v>
+      </c>
+      <c r="DB135">
+        <v>0</v>
+      </c>
+      <c r="DC135">
+        <v>0</v>
+      </c>
+      <c r="DD135">
+        <v>0</v>
+      </c>
+      <c r="DE135">
+        <v>0</v>
+      </c>
     </row>
-    <row r="136" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B136" s="4">
         <v>52267</v>
@@ -42403,10 +45616,34 @@
       <c r="CW136">
         <v>1</v>
       </c>
+      <c r="CX136">
+        <v>1</v>
+      </c>
+      <c r="CY136">
+        <v>1</v>
+      </c>
+      <c r="CZ136">
+        <v>1</v>
+      </c>
+      <c r="DA136">
+        <v>1</v>
+      </c>
+      <c r="DB136">
+        <v>1</v>
+      </c>
+      <c r="DC136">
+        <v>1</v>
+      </c>
+      <c r="DD136">
+        <v>1</v>
+      </c>
+      <c r="DE136">
+        <v>1</v>
+      </c>
     </row>
-    <row r="137" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B137" s="4">
         <v>4344</v>
@@ -42708,10 +45945,34 @@
       <c r="CW137">
         <v>0</v>
       </c>
+      <c r="CX137">
+        <v>0</v>
+      </c>
+      <c r="CY137">
+        <v>0</v>
+      </c>
+      <c r="CZ137">
+        <v>0</v>
+      </c>
+      <c r="DA137">
+        <v>0</v>
+      </c>
+      <c r="DB137">
+        <v>0</v>
+      </c>
+      <c r="DC137">
+        <v>0</v>
+      </c>
+      <c r="DD137">
+        <v>0</v>
+      </c>
+      <c r="DE137">
+        <v>0</v>
+      </c>
     </row>
-    <row r="138" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B138" s="4">
         <v>309</v>
@@ -43013,10 +46274,34 @@
       <c r="CW138">
         <v>0</v>
       </c>
+      <c r="CX138">
+        <v>0</v>
+      </c>
+      <c r="CY138">
+        <v>0</v>
+      </c>
+      <c r="CZ138">
+        <v>0</v>
+      </c>
+      <c r="DA138">
+        <v>0</v>
+      </c>
+      <c r="DB138">
+        <v>0</v>
+      </c>
+      <c r="DC138">
+        <v>0</v>
+      </c>
+      <c r="DD138">
+        <v>0</v>
+      </c>
+      <c r="DE138">
+        <v>0</v>
+      </c>
     </row>
-    <row r="139" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B139" s="4">
         <v>3462</v>
@@ -43318,10 +46603,34 @@
       <c r="CW139">
         <v>0</v>
       </c>
+      <c r="CX139">
+        <v>0</v>
+      </c>
+      <c r="CY139">
+        <v>0</v>
+      </c>
+      <c r="CZ139">
+        <v>0</v>
+      </c>
+      <c r="DA139">
+        <v>0</v>
+      </c>
+      <c r="DB139">
+        <v>0</v>
+      </c>
+      <c r="DC139">
+        <v>0</v>
+      </c>
+      <c r="DD139">
+        <v>0</v>
+      </c>
+      <c r="DE139">
+        <v>0</v>
+      </c>
     </row>
-    <row r="140" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B140" s="4">
         <v>30987</v>
@@ -43623,10 +46932,34 @@
       <c r="CW140">
         <v>1</v>
       </c>
+      <c r="CX140">
+        <v>1</v>
+      </c>
+      <c r="CY140">
+        <v>1</v>
+      </c>
+      <c r="CZ140">
+        <v>1</v>
+      </c>
+      <c r="DA140">
+        <v>1</v>
+      </c>
+      <c r="DB140">
+        <v>1</v>
+      </c>
+      <c r="DC140">
+        <v>1</v>
+      </c>
+      <c r="DD140">
+        <v>1</v>
+      </c>
+      <c r="DE140">
+        <v>1</v>
+      </c>
     </row>
-    <row r="141" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B141" s="4">
         <v>3937</v>
@@ -43928,10 +47261,34 @@
       <c r="CW141">
         <v>0</v>
       </c>
+      <c r="CX141">
+        <v>0</v>
+      </c>
+      <c r="CY141">
+        <v>0</v>
+      </c>
+      <c r="CZ141">
+        <v>0</v>
+      </c>
+      <c r="DA141">
+        <v>0</v>
+      </c>
+      <c r="DB141">
+        <v>0</v>
+      </c>
+      <c r="DC141">
+        <v>0</v>
+      </c>
+      <c r="DD141">
+        <v>0</v>
+      </c>
+      <c r="DE141">
+        <v>0</v>
+      </c>
     </row>
-    <row r="142" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B142" s="4">
         <v>50014</v>
@@ -44233,10 +47590,34 @@
       <c r="CW142">
         <v>11</v>
       </c>
+      <c r="CX142">
+        <v>11</v>
+      </c>
+      <c r="CY142">
+        <v>11</v>
+      </c>
+      <c r="CZ142">
+        <v>11</v>
+      </c>
+      <c r="DA142">
+        <v>11</v>
+      </c>
+      <c r="DB142">
+        <v>11</v>
+      </c>
+      <c r="DC142">
+        <v>12</v>
+      </c>
+      <c r="DD142">
+        <v>12</v>
+      </c>
+      <c r="DE142">
+        <v>12</v>
+      </c>
     </row>
-    <row r="143" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B143" s="4">
         <v>12776</v>
@@ -44538,10 +47919,34 @@
       <c r="CW143">
         <v>0</v>
       </c>
+      <c r="CX143">
+        <v>0</v>
+      </c>
+      <c r="CY143">
+        <v>0</v>
+      </c>
+      <c r="CZ143">
+        <v>0</v>
+      </c>
+      <c r="DA143">
+        <v>0</v>
+      </c>
+      <c r="DB143">
+        <v>0</v>
+      </c>
+      <c r="DC143">
+        <v>0</v>
+      </c>
+      <c r="DD143">
+        <v>0</v>
+      </c>
+      <c r="DE143">
+        <v>0</v>
+      </c>
     </row>
-    <row r="144" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="B144" s="4">
         <v>21037</v>
@@ -44843,10 +48248,34 @@
       <c r="CW144">
         <v>0</v>
       </c>
+      <c r="CX144">
+        <v>0</v>
+      </c>
+      <c r="CY144">
+        <v>0</v>
+      </c>
+      <c r="CZ144">
+        <v>0</v>
+      </c>
+      <c r="DA144">
+        <v>0</v>
+      </c>
+      <c r="DB144">
+        <v>0</v>
+      </c>
+      <c r="DC144">
+        <v>0</v>
+      </c>
+      <c r="DD144">
+        <v>0</v>
+      </c>
+      <c r="DE144">
+        <v>0</v>
+      </c>
     </row>
-    <row r="145" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B145" s="4">
         <v>8309</v>
@@ -45148,10 +48577,34 @@
       <c r="CW145">
         <v>0</v>
       </c>
+      <c r="CX145">
+        <v>0</v>
+      </c>
+      <c r="CY145">
+        <v>0</v>
+      </c>
+      <c r="CZ145">
+        <v>0</v>
+      </c>
+      <c r="DA145">
+        <v>0</v>
+      </c>
+      <c r="DB145">
+        <v>0</v>
+      </c>
+      <c r="DC145">
+        <v>0</v>
+      </c>
+      <c r="DD145">
+        <v>0</v>
+      </c>
+      <c r="DE145">
+        <v>0</v>
+      </c>
     </row>
-    <row r="146" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B146" s="4">
         <v>20735</v>
@@ -45453,10 +48906,34 @@
       <c r="CW146">
         <v>1</v>
       </c>
+      <c r="CX146">
+        <v>1</v>
+      </c>
+      <c r="CY146">
+        <v>1</v>
+      </c>
+      <c r="CZ146">
+        <v>1</v>
+      </c>
+      <c r="DA146">
+        <v>1</v>
+      </c>
+      <c r="DB146">
+        <v>1</v>
+      </c>
+      <c r="DC146">
+        <v>1</v>
+      </c>
+      <c r="DD146">
+        <v>1</v>
+      </c>
+      <c r="DE146">
+        <v>1</v>
+      </c>
     </row>
-    <row r="147" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B147" s="4">
         <v>17595</v>
@@ -45758,10 +49235,34 @@
       <c r="CW147">
         <v>2</v>
       </c>
+      <c r="CX147">
+        <v>2</v>
+      </c>
+      <c r="CY147">
+        <v>2</v>
+      </c>
+      <c r="CZ147">
+        <v>2</v>
+      </c>
+      <c r="DA147">
+        <v>2</v>
+      </c>
+      <c r="DB147">
+        <v>2</v>
+      </c>
+      <c r="DC147">
+        <v>2</v>
+      </c>
+      <c r="DD147">
+        <v>3</v>
+      </c>
+      <c r="DE147">
+        <v>3</v>
+      </c>
     </row>
-    <row r="148" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B148" s="4">
         <v>17707</v>
@@ -46063,10 +49564,34 @@
       <c r="CW148">
         <v>0</v>
       </c>
+      <c r="CX148">
+        <v>0</v>
+      </c>
+      <c r="CY148">
+        <v>0</v>
+      </c>
+      <c r="CZ148">
+        <v>0</v>
+      </c>
+      <c r="DA148">
+        <v>0</v>
+      </c>
+      <c r="DB148">
+        <v>0</v>
+      </c>
+      <c r="DC148">
+        <v>0</v>
+      </c>
+      <c r="DD148">
+        <v>0</v>
+      </c>
+      <c r="DE148">
+        <v>0</v>
+      </c>
     </row>
-    <row r="149" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B149" s="4">
         <v>85284</v>
@@ -46368,10 +49893,34 @@
       <c r="CW149">
         <v>3</v>
       </c>
+      <c r="CX149">
+        <v>3</v>
+      </c>
+      <c r="CY149">
+        <v>3</v>
+      </c>
+      <c r="CZ149">
+        <v>3</v>
+      </c>
+      <c r="DA149">
+        <v>3</v>
+      </c>
+      <c r="DB149">
+        <v>3</v>
+      </c>
+      <c r="DC149">
+        <v>3</v>
+      </c>
+      <c r="DD149">
+        <v>3</v>
+      </c>
+      <c r="DE149">
+        <v>3</v>
+      </c>
     </row>
-    <row r="150" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B150" s="4">
         <v>23544</v>
@@ -46673,10 +50222,34 @@
       <c r="CW150">
         <v>1</v>
       </c>
+      <c r="CX150">
+        <v>1</v>
+      </c>
+      <c r="CY150">
+        <v>1</v>
+      </c>
+      <c r="CZ150">
+        <v>1</v>
+      </c>
+      <c r="DA150">
+        <v>1</v>
+      </c>
+      <c r="DB150">
+        <v>1</v>
+      </c>
+      <c r="DC150">
+        <v>1</v>
+      </c>
+      <c r="DD150">
+        <v>1</v>
+      </c>
+      <c r="DE150">
+        <v>1</v>
+      </c>
     </row>
-    <row r="151" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B151" s="4">
         <v>3651</v>
@@ -46978,10 +50551,34 @@
       <c r="CW151">
         <v>0</v>
       </c>
+      <c r="CX151">
+        <v>0</v>
+      </c>
+      <c r="CY151">
+        <v>0</v>
+      </c>
+      <c r="CZ151">
+        <v>0</v>
+      </c>
+      <c r="DA151">
+        <v>0</v>
+      </c>
+      <c r="DB151">
+        <v>0</v>
+      </c>
+      <c r="DC151">
+        <v>0</v>
+      </c>
+      <c r="DD151">
+        <v>0</v>
+      </c>
+      <c r="DE151">
+        <v>0</v>
+      </c>
     </row>
-    <row r="152" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B152" s="4">
         <v>12030</v>
@@ -47283,10 +50880,34 @@
       <c r="CW152">
         <v>0</v>
       </c>
+      <c r="CX152">
+        <v>0</v>
+      </c>
+      <c r="CY152">
+        <v>0</v>
+      </c>
+      <c r="CZ152">
+        <v>0</v>
+      </c>
+      <c r="DA152">
+        <v>0</v>
+      </c>
+      <c r="DB152">
+        <v>0</v>
+      </c>
+      <c r="DC152">
+        <v>0</v>
+      </c>
+      <c r="DD152">
+        <v>0</v>
+      </c>
+      <c r="DE152">
+        <v>0</v>
+      </c>
     </row>
-    <row r="153" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B153" s="4">
         <v>19452</v>
@@ -47588,10 +51209,34 @@
       <c r="CW153">
         <v>0</v>
       </c>
+      <c r="CX153">
+        <v>0</v>
+      </c>
+      <c r="CY153">
+        <v>0</v>
+      </c>
+      <c r="CZ153">
+        <v>0</v>
+      </c>
+      <c r="DA153">
+        <v>0</v>
+      </c>
+      <c r="DB153">
+        <v>0</v>
+      </c>
+      <c r="DC153">
+        <v>0</v>
+      </c>
+      <c r="DD153">
+        <v>0</v>
+      </c>
+      <c r="DE153">
+        <v>0</v>
+      </c>
     </row>
-    <row r="154" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B154" s="4">
         <v>92</v>
@@ -47893,10 +51538,34 @@
       <c r="CW154">
         <v>0</v>
       </c>
+      <c r="CX154">
+        <v>0</v>
+      </c>
+      <c r="CY154">
+        <v>0</v>
+      </c>
+      <c r="CZ154">
+        <v>0</v>
+      </c>
+      <c r="DA154">
+        <v>0</v>
+      </c>
+      <c r="DB154">
+        <v>0</v>
+      </c>
+      <c r="DC154">
+        <v>0</v>
+      </c>
+      <c r="DD154">
+        <v>0</v>
+      </c>
+      <c r="DE154">
+        <v>0</v>
+      </c>
     </row>
-    <row r="155" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B155" s="4">
         <v>317210</v>
@@ -48198,10 +51867,34 @@
       <c r="CW155">
         <v>50</v>
       </c>
+      <c r="CX155">
+        <v>50</v>
+      </c>
+      <c r="CY155">
+        <v>51</v>
+      </c>
+      <c r="CZ155">
+        <v>51</v>
+      </c>
+      <c r="DA155">
+        <v>51</v>
+      </c>
+      <c r="DB155">
+        <v>51</v>
+      </c>
+      <c r="DC155">
+        <v>51</v>
+      </c>
+      <c r="DD155">
+        <v>51</v>
+      </c>
+      <c r="DE155">
+        <v>51</v>
+      </c>
     </row>
-    <row r="156" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B156" s="4">
         <v>5588</v>
@@ -48503,10 +52196,34 @@
       <c r="CW156">
         <v>1</v>
       </c>
+      <c r="CX156">
+        <v>1</v>
+      </c>
+      <c r="CY156">
+        <v>1</v>
+      </c>
+      <c r="CZ156">
+        <v>1</v>
+      </c>
+      <c r="DA156">
+        <v>1</v>
+      </c>
+      <c r="DB156">
+        <v>1</v>
+      </c>
+      <c r="DC156">
+        <v>1</v>
+      </c>
+      <c r="DD156">
+        <v>1</v>
+      </c>
+      <c r="DE156">
+        <v>1</v>
+      </c>
     </row>
-    <row r="157" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B157" s="4">
         <v>8660</v>
@@ -48808,10 +52525,34 @@
       <c r="CW157">
         <v>0</v>
       </c>
+      <c r="CX157">
+        <v>0</v>
+      </c>
+      <c r="CY157">
+        <v>0</v>
+      </c>
+      <c r="CZ157">
+        <v>0</v>
+      </c>
+      <c r="DA157">
+        <v>0</v>
+      </c>
+      <c r="DB157">
+        <v>0</v>
+      </c>
+      <c r="DC157">
+        <v>0</v>
+      </c>
+      <c r="DD157">
+        <v>0</v>
+      </c>
+      <c r="DE157">
+        <v>0</v>
+      </c>
     </row>
-    <row r="158" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B158" s="4">
         <v>253066</v>
@@ -49113,10 +52854,34 @@
       <c r="CW158">
         <v>4</v>
       </c>
+      <c r="CX158">
+        <v>4</v>
+      </c>
+      <c r="CY158">
+        <v>4</v>
+      </c>
+      <c r="CZ158">
+        <v>4</v>
+      </c>
+      <c r="DA158">
+        <v>4</v>
+      </c>
+      <c r="DB158">
+        <v>4</v>
+      </c>
+      <c r="DC158">
+        <v>4</v>
+      </c>
+      <c r="DD158">
+        <v>4</v>
+      </c>
+      <c r="DE158">
+        <v>4</v>
+      </c>
     </row>
-    <row r="159" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B159" s="4">
         <v>783</v>
@@ -49418,10 +53183,34 @@
       <c r="CW159">
         <v>0</v>
       </c>
+      <c r="CX159">
+        <v>0</v>
+      </c>
+      <c r="CY159">
+        <v>0</v>
+      </c>
+      <c r="CZ159">
+        <v>0</v>
+      </c>
+      <c r="DA159">
+        <v>0</v>
+      </c>
+      <c r="DB159">
+        <v>0</v>
+      </c>
+      <c r="DC159">
+        <v>0</v>
+      </c>
+      <c r="DD159">
+        <v>0</v>
+      </c>
+      <c r="DE159">
+        <v>0</v>
+      </c>
     </row>
-    <row r="160" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B160" s="4">
         <v>14527</v>
@@ -49723,10 +53512,34 @@
       <c r="CW160">
         <v>0</v>
       </c>
+      <c r="CX160">
+        <v>0</v>
+      </c>
+      <c r="CY160">
+        <v>0</v>
+      </c>
+      <c r="CZ160">
+        <v>0</v>
+      </c>
+      <c r="DA160">
+        <v>0</v>
+      </c>
+      <c r="DB160">
+        <v>0</v>
+      </c>
+      <c r="DC160">
+        <v>0</v>
+      </c>
+      <c r="DD160">
+        <v>0</v>
+      </c>
+      <c r="DE160">
+        <v>0</v>
+      </c>
     </row>
-    <row r="161" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B161" s="4">
         <v>10294</v>
@@ -50028,10 +53841,34 @@
       <c r="CW161">
         <v>1</v>
       </c>
+      <c r="CX161">
+        <v>1</v>
+      </c>
+      <c r="CY161">
+        <v>1</v>
+      </c>
+      <c r="CZ161">
+        <v>1</v>
+      </c>
+      <c r="DA161">
+        <v>1</v>
+      </c>
+      <c r="DB161">
+        <v>1</v>
+      </c>
+      <c r="DC161">
+        <v>1</v>
+      </c>
+      <c r="DD161">
+        <v>1</v>
+      </c>
+      <c r="DE161">
+        <v>1</v>
+      </c>
     </row>
-    <row r="162" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B162" s="4">
         <v>6044</v>
@@ -50333,10 +54170,34 @@
       <c r="CW162">
         <v>1</v>
       </c>
+      <c r="CX162">
+        <v>1</v>
+      </c>
+      <c r="CY162">
+        <v>1</v>
+      </c>
+      <c r="CZ162">
+        <v>1</v>
+      </c>
+      <c r="DA162">
+        <v>1</v>
+      </c>
+      <c r="DB162">
+        <v>1</v>
+      </c>
+      <c r="DC162">
+        <v>1</v>
+      </c>
+      <c r="DD162">
+        <v>1</v>
+      </c>
+      <c r="DE162">
+        <v>1</v>
+      </c>
     </row>
-    <row r="163" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B163" s="4">
         <v>3899</v>
@@ -50638,10 +54499,34 @@
       <c r="CW163">
         <v>0</v>
       </c>
+      <c r="CX163">
+        <v>0</v>
+      </c>
+      <c r="CY163">
+        <v>0</v>
+      </c>
+      <c r="CZ163">
+        <v>0</v>
+      </c>
+      <c r="DA163">
+        <v>0</v>
+      </c>
+      <c r="DB163">
+        <v>0</v>
+      </c>
+      <c r="DC163">
+        <v>0</v>
+      </c>
+      <c r="DD163">
+        <v>0</v>
+      </c>
+      <c r="DE163">
+        <v>0</v>
+      </c>
     </row>
-    <row r="164" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B164" s="4">
         <v>37064</v>
@@ -50943,10 +54828,34 @@
       <c r="CW164">
         <v>5</v>
       </c>
+      <c r="CX164">
+        <v>5</v>
+      </c>
+      <c r="CY164">
+        <v>5</v>
+      </c>
+      <c r="CZ164">
+        <v>5</v>
+      </c>
+      <c r="DA164">
+        <v>5</v>
+      </c>
+      <c r="DB164">
+        <v>5</v>
+      </c>
+      <c r="DC164">
+        <v>5</v>
+      </c>
+      <c r="DD164">
+        <v>5</v>
+      </c>
+      <c r="DE164">
+        <v>5</v>
+      </c>
     </row>
-    <row r="165" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B165" s="4">
         <v>59938</v>
@@ -51248,10 +55157,34 @@
       <c r="CW165">
         <v>2</v>
       </c>
+      <c r="CX165">
+        <v>2</v>
+      </c>
+      <c r="CY165">
+        <v>2</v>
+      </c>
+      <c r="CZ165">
+        <v>2</v>
+      </c>
+      <c r="DA165">
+        <v>2</v>
+      </c>
+      <c r="DB165">
+        <v>2</v>
+      </c>
+      <c r="DC165">
+        <v>2</v>
+      </c>
+      <c r="DD165">
+        <v>2</v>
+      </c>
+      <c r="DE165">
+        <v>2</v>
+      </c>
     </row>
-    <row r="166" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="B166" s="4">
         <v>50594</v>
@@ -51553,10 +55486,34 @@
       <c r="CW166">
         <v>2</v>
       </c>
+      <c r="CX166">
+        <v>2</v>
+      </c>
+      <c r="CY166">
+        <v>2</v>
+      </c>
+      <c r="CZ166">
+        <v>2</v>
+      </c>
+      <c r="DA166">
+        <v>2</v>
+      </c>
+      <c r="DB166">
+        <v>2</v>
+      </c>
+      <c r="DC166">
+        <v>2</v>
+      </c>
+      <c r="DD166">
+        <v>2</v>
+      </c>
+      <c r="DE166">
+        <v>2</v>
+      </c>
     </row>
-    <row r="167" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B167" s="4">
         <v>2188</v>
@@ -51858,10 +55815,34 @@
       <c r="CW167">
         <v>0</v>
       </c>
+      <c r="CX167">
+        <v>0</v>
+      </c>
+      <c r="CY167">
+        <v>0</v>
+      </c>
+      <c r="CZ167">
+        <v>0</v>
+      </c>
+      <c r="DA167">
+        <v>0</v>
+      </c>
+      <c r="DB167">
+        <v>0</v>
+      </c>
+      <c r="DC167">
+        <v>0</v>
+      </c>
+      <c r="DD167">
+        <v>0</v>
+      </c>
+      <c r="DE167">
+        <v>0</v>
+      </c>
     </row>
-    <row r="168" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B168" s="4">
         <v>187364</v>
@@ -52163,10 +56144,34 @@
       <c r="CW168">
         <v>13</v>
       </c>
+      <c r="CX168">
+        <v>13</v>
+      </c>
+      <c r="CY168">
+        <v>13</v>
+      </c>
+      <c r="CZ168">
+        <v>13</v>
+      </c>
+      <c r="DA168">
+        <v>13</v>
+      </c>
+      <c r="DB168">
+        <v>13</v>
+      </c>
+      <c r="DC168">
+        <v>13</v>
+      </c>
+      <c r="DD168">
+        <v>13</v>
+      </c>
+      <c r="DE168">
+        <v>13</v>
+      </c>
     </row>
-    <row r="169" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B169" s="4">
         <v>24635</v>
@@ -52468,10 +56473,34 @@
       <c r="CW169">
         <v>1</v>
       </c>
+      <c r="CX169">
+        <v>1</v>
+      </c>
+      <c r="CY169">
+        <v>1</v>
+      </c>
+      <c r="CZ169">
+        <v>1</v>
+      </c>
+      <c r="DA169">
+        <v>1</v>
+      </c>
+      <c r="DB169">
+        <v>1</v>
+      </c>
+      <c r="DC169">
+        <v>1</v>
+      </c>
+      <c r="DD169">
+        <v>1</v>
+      </c>
+      <c r="DE169">
+        <v>1</v>
+      </c>
     </row>
-    <row r="170" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B170" s="4">
         <v>4870</v>
@@ -52773,10 +56802,34 @@
       <c r="CW170">
         <v>0</v>
       </c>
+      <c r="CX170">
+        <v>0</v>
+      </c>
+      <c r="CY170">
+        <v>0</v>
+      </c>
+      <c r="CZ170">
+        <v>0</v>
+      </c>
+      <c r="DA170">
+        <v>0</v>
+      </c>
+      <c r="DB170">
+        <v>0</v>
+      </c>
+      <c r="DC170">
+        <v>0</v>
+      </c>
+      <c r="DD170">
+        <v>0</v>
+      </c>
+      <c r="DE170">
+        <v>0</v>
+      </c>
     </row>
-    <row r="171" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B171" s="4">
         <v>9865</v>
@@ -53078,10 +57131,34 @@
       <c r="CW171">
         <v>0</v>
       </c>
+      <c r="CX171">
+        <v>0</v>
+      </c>
+      <c r="CY171">
+        <v>0</v>
+      </c>
+      <c r="CZ171">
+        <v>0</v>
+      </c>
+      <c r="DA171">
+        <v>0</v>
+      </c>
+      <c r="DB171">
+        <v>0</v>
+      </c>
+      <c r="DC171">
+        <v>0</v>
+      </c>
+      <c r="DD171">
+        <v>0</v>
+      </c>
+      <c r="DE171">
+        <v>0</v>
+      </c>
     </row>
-    <row r="172" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B172" s="4">
         <v>19199</v>
@@ -53383,10 +57460,34 @@
       <c r="CW172">
         <v>1</v>
       </c>
+      <c r="CX172">
+        <v>1</v>
+      </c>
+      <c r="CY172">
+        <v>1</v>
+      </c>
+      <c r="CZ172">
+        <v>1</v>
+      </c>
+      <c r="DA172">
+        <v>1</v>
+      </c>
+      <c r="DB172">
+        <v>1</v>
+      </c>
+      <c r="DC172">
+        <v>1</v>
+      </c>
+      <c r="DD172">
+        <v>1</v>
+      </c>
+      <c r="DE172">
+        <v>1</v>
+      </c>
     </row>
-    <row r="173" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B173" s="4">
         <v>613951</v>
@@ -53688,10 +57789,34 @@
       <c r="CW173">
         <v>31</v>
       </c>
+      <c r="CX173">
+        <v>32</v>
+      </c>
+      <c r="CY173">
+        <v>32</v>
+      </c>
+      <c r="CZ173">
+        <v>32</v>
+      </c>
+      <c r="DA173">
+        <v>32</v>
+      </c>
+      <c r="DB173">
+        <v>32</v>
+      </c>
+      <c r="DC173">
+        <v>33</v>
+      </c>
+      <c r="DD173">
+        <v>33</v>
+      </c>
+      <c r="DE173">
+        <v>33</v>
+      </c>
     </row>
-    <row r="174" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="B174" s="4">
         <v>21575</v>
@@ -53993,10 +58118,34 @@
       <c r="CW174">
         <v>14</v>
       </c>
+      <c r="CX174">
+        <v>14</v>
+      </c>
+      <c r="CY174">
+        <v>14</v>
+      </c>
+      <c r="CZ174">
+        <v>14</v>
+      </c>
+      <c r="DA174">
+        <v>14</v>
+      </c>
+      <c r="DB174">
+        <v>14</v>
+      </c>
+      <c r="DC174">
+        <v>14</v>
+      </c>
+      <c r="DD174">
+        <v>14</v>
+      </c>
+      <c r="DE174">
+        <v>14</v>
+      </c>
     </row>
-    <row r="175" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B175" s="4">
         <v>12448</v>
@@ -54298,10 +58447,34 @@
       <c r="CW175">
         <v>0</v>
       </c>
+      <c r="CX175">
+        <v>0</v>
+      </c>
+      <c r="CY175">
+        <v>0</v>
+      </c>
+      <c r="CZ175">
+        <v>0</v>
+      </c>
+      <c r="DA175">
+        <v>0</v>
+      </c>
+      <c r="DB175">
+        <v>0</v>
+      </c>
+      <c r="DC175">
+        <v>0</v>
+      </c>
+      <c r="DD175">
+        <v>0</v>
+      </c>
+      <c r="DE175">
+        <v>0</v>
+      </c>
     </row>
-    <row r="176" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B176" s="4">
         <v>1172</v>
@@ -54603,10 +58776,34 @@
       <c r="CW176">
         <v>0</v>
       </c>
+      <c r="CX176">
+        <v>0</v>
+      </c>
+      <c r="CY176">
+        <v>0</v>
+      </c>
+      <c r="CZ176">
+        <v>0</v>
+      </c>
+      <c r="DA176">
+        <v>0</v>
+      </c>
+      <c r="DB176">
+        <v>0</v>
+      </c>
+      <c r="DC176">
+        <v>0</v>
+      </c>
+      <c r="DD176">
+        <v>0</v>
+      </c>
+      <c r="DE176">
+        <v>0</v>
+      </c>
     </row>
-    <row r="177" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B177" s="4">
         <v>64106</v>
@@ -54908,10 +59105,34 @@
       <c r="CW177">
         <v>21</v>
       </c>
+      <c r="CX177">
+        <v>24</v>
+      </c>
+      <c r="CY177">
+        <v>25</v>
+      </c>
+      <c r="CZ177">
+        <v>25</v>
+      </c>
+      <c r="DA177">
+        <v>25</v>
+      </c>
+      <c r="DB177">
+        <v>25</v>
+      </c>
+      <c r="DC177">
+        <v>25</v>
+      </c>
+      <c r="DD177">
+        <v>25</v>
+      </c>
+      <c r="DE177">
+        <v>25</v>
+      </c>
     </row>
-    <row r="178" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B178" s="4">
         <v>47985</v>
@@ -55213,10 +59434,34 @@
       <c r="CW178">
         <v>3</v>
       </c>
+      <c r="CX178">
+        <v>3</v>
+      </c>
+      <c r="CY178">
+        <v>3</v>
+      </c>
+      <c r="CZ178">
+        <v>3</v>
+      </c>
+      <c r="DA178">
+        <v>3</v>
+      </c>
+      <c r="DB178">
+        <v>3</v>
+      </c>
+      <c r="DC178">
+        <v>4</v>
+      </c>
+      <c r="DD178">
+        <v>4</v>
+      </c>
+      <c r="DE178">
+        <v>4</v>
+      </c>
     </row>
-    <row r="179" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B179" s="4">
         <v>13724</v>
@@ -55518,10 +59763,34 @@
       <c r="CW179">
         <v>0</v>
       </c>
+      <c r="CX179">
+        <v>0</v>
+      </c>
+      <c r="CY179">
+        <v>0</v>
+      </c>
+      <c r="CZ179">
+        <v>0</v>
+      </c>
+      <c r="DA179">
+        <v>0</v>
+      </c>
+      <c r="DB179">
+        <v>0</v>
+      </c>
+      <c r="DC179">
+        <v>0</v>
+      </c>
+      <c r="DD179">
+        <v>0</v>
+      </c>
+      <c r="DE179">
+        <v>0</v>
+      </c>
     </row>
-    <row r="180" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B180" s="4">
         <v>15642</v>
@@ -55823,10 +60092,34 @@
       <c r="CW180">
         <v>0</v>
       </c>
+      <c r="CX180">
+        <v>0</v>
+      </c>
+      <c r="CY180">
+        <v>0</v>
+      </c>
+      <c r="CZ180">
+        <v>0</v>
+      </c>
+      <c r="DA180">
+        <v>0</v>
+      </c>
+      <c r="DB180">
+        <v>0</v>
+      </c>
+      <c r="DC180">
+        <v>0</v>
+      </c>
+      <c r="DD180">
+        <v>0</v>
+      </c>
+      <c r="DE180">
+        <v>0</v>
+      </c>
     </row>
-    <row r="181" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B181" s="4">
         <v>383718</v>
@@ -56128,10 +60421,34 @@
       <c r="CW181">
         <v>3</v>
       </c>
+      <c r="CX181">
+        <v>3</v>
+      </c>
+      <c r="CY181">
+        <v>3</v>
+      </c>
+      <c r="CZ181">
+        <v>3</v>
+      </c>
+      <c r="DA181">
+        <v>3</v>
+      </c>
+      <c r="DB181">
+        <v>3</v>
+      </c>
+      <c r="DC181">
+        <v>4</v>
+      </c>
+      <c r="DD181">
+        <v>4</v>
+      </c>
+      <c r="DE181">
+        <v>4</v>
+      </c>
     </row>
-    <row r="182" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B182" s="4">
         <v>11309</v>
@@ -56433,10 +60750,34 @@
       <c r="CW182">
         <v>2</v>
       </c>
+      <c r="CX182">
+        <v>2</v>
+      </c>
+      <c r="CY182">
+        <v>2</v>
+      </c>
+      <c r="CZ182">
+        <v>2</v>
+      </c>
+      <c r="DA182">
+        <v>2</v>
+      </c>
+      <c r="DB182">
+        <v>2</v>
+      </c>
+      <c r="DC182">
+        <v>2</v>
+      </c>
+      <c r="DD182">
+        <v>2</v>
+      </c>
+      <c r="DE182">
+        <v>2</v>
+      </c>
     </row>
-    <row r="183" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B183" s="4">
         <v>2200</v>
@@ -56738,10 +61079,34 @@
       <c r="CW183">
         <v>1</v>
       </c>
+      <c r="CX183">
+        <v>1</v>
+      </c>
+      <c r="CY183">
+        <v>1</v>
+      </c>
+      <c r="CZ183">
+        <v>1</v>
+      </c>
+      <c r="DA183">
+        <v>1</v>
+      </c>
+      <c r="DB183">
+        <v>1</v>
+      </c>
+      <c r="DC183">
+        <v>1</v>
+      </c>
+      <c r="DD183">
+        <v>1</v>
+      </c>
+      <c r="DE183">
+        <v>1</v>
+      </c>
     </row>
-    <row r="184" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B184" s="4">
         <v>86155</v>
@@ -57043,10 +61408,34 @@
       <c r="CW184">
         <v>2</v>
       </c>
+      <c r="CX184">
+        <v>2</v>
+      </c>
+      <c r="CY184">
+        <v>2</v>
+      </c>
+      <c r="CZ184">
+        <v>2</v>
+      </c>
+      <c r="DA184">
+        <v>2</v>
+      </c>
+      <c r="DB184">
+        <v>2</v>
+      </c>
+      <c r="DC184">
+        <v>2</v>
+      </c>
+      <c r="DD184">
+        <v>3</v>
+      </c>
+      <c r="DE184">
+        <v>3</v>
+      </c>
     </row>
-    <row r="185" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B185" s="4">
         <v>27859</v>
@@ -57348,10 +61737,34 @@
       <c r="CW185">
         <v>2</v>
       </c>
+      <c r="CX185">
+        <v>2</v>
+      </c>
+      <c r="CY185">
+        <v>2</v>
+      </c>
+      <c r="CZ185">
+        <v>2</v>
+      </c>
+      <c r="DA185">
+        <v>2</v>
+      </c>
+      <c r="DB185">
+        <v>2</v>
+      </c>
+      <c r="DC185">
+        <v>2</v>
+      </c>
+      <c r="DD185">
+        <v>2</v>
+      </c>
+      <c r="DE185">
+        <v>2</v>
+      </c>
     </row>
-    <row r="186" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B186" s="4">
         <v>24576</v>
@@ -57653,10 +62066,34 @@
       <c r="CW186">
         <v>23</v>
       </c>
+      <c r="CX186">
+        <v>23</v>
+      </c>
+      <c r="CY186">
+        <v>23</v>
+      </c>
+      <c r="CZ186">
+        <v>23</v>
+      </c>
+      <c r="DA186">
+        <v>23</v>
+      </c>
+      <c r="DB186">
+        <v>23</v>
+      </c>
+      <c r="DC186">
+        <v>23</v>
+      </c>
+      <c r="DD186">
+        <v>23</v>
+      </c>
+      <c r="DE186">
+        <v>23</v>
+      </c>
     </row>
-    <row r="187" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B187" s="4">
         <v>135621</v>
@@ -57958,10 +62395,34 @@
       <c r="CW187">
         <v>1</v>
       </c>
+      <c r="CX187">
+        <v>1</v>
+      </c>
+      <c r="CY187">
+        <v>1</v>
+      </c>
+      <c r="CZ187">
+        <v>1</v>
+      </c>
+      <c r="DA187">
+        <v>1</v>
+      </c>
+      <c r="DB187">
+        <v>1</v>
+      </c>
+      <c r="DC187">
+        <v>1</v>
+      </c>
+      <c r="DD187">
+        <v>1</v>
+      </c>
+      <c r="DE187">
+        <v>1</v>
+      </c>
     </row>
-    <row r="188" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B188" s="4">
         <v>9200</v>
@@ -58263,10 +62724,34 @@
       <c r="CW188">
         <v>0</v>
       </c>
+      <c r="CX188">
+        <v>0</v>
+      </c>
+      <c r="CY188">
+        <v>0</v>
+      </c>
+      <c r="CZ188">
+        <v>0</v>
+      </c>
+      <c r="DA188">
+        <v>0</v>
+      </c>
+      <c r="DB188">
+        <v>0</v>
+      </c>
+      <c r="DC188">
+        <v>0</v>
+      </c>
+      <c r="DD188">
+        <v>0</v>
+      </c>
+      <c r="DE188">
+        <v>0</v>
+      </c>
     </row>
-    <row r="189" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B189" s="4">
         <v>16533</v>
@@ -58568,10 +63053,34 @@
       <c r="CW189">
         <v>0</v>
       </c>
+      <c r="CX189">
+        <v>0</v>
+      </c>
+      <c r="CY189">
+        <v>0</v>
+      </c>
+      <c r="CZ189">
+        <v>0</v>
+      </c>
+      <c r="DA189">
+        <v>0</v>
+      </c>
+      <c r="DB189">
+        <v>0</v>
+      </c>
+      <c r="DC189">
+        <v>0</v>
+      </c>
+      <c r="DD189">
+        <v>0</v>
+      </c>
+      <c r="DE189">
+        <v>0</v>
+      </c>
     </row>
-    <row r="190" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B190" s="4">
         <v>49080</v>
@@ -58873,10 +63382,34 @@
       <c r="CW190">
         <v>0</v>
       </c>
+      <c r="CX190">
+        <v>0</v>
+      </c>
+      <c r="CY190">
+        <v>0</v>
+      </c>
+      <c r="CZ190">
+        <v>0</v>
+      </c>
+      <c r="DA190">
+        <v>0</v>
+      </c>
+      <c r="DB190">
+        <v>0</v>
+      </c>
+      <c r="DC190">
+        <v>0</v>
+      </c>
+      <c r="DD190">
+        <v>0</v>
+      </c>
+      <c r="DE190">
+        <v>0</v>
+      </c>
     </row>
-    <row r="191" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B191" s="4">
         <v>122706</v>
@@ -59178,10 +63711,34 @@
       <c r="CW191">
         <v>32</v>
       </c>
+      <c r="CX191">
+        <v>36</v>
+      </c>
+      <c r="CY191">
+        <v>36</v>
+      </c>
+      <c r="CZ191">
+        <v>36</v>
+      </c>
+      <c r="DA191">
+        <v>36</v>
+      </c>
+      <c r="DB191">
+        <v>36</v>
+      </c>
+      <c r="DC191">
+        <v>36</v>
+      </c>
+      <c r="DD191">
+        <v>37</v>
+      </c>
+      <c r="DE191">
+        <v>38</v>
+      </c>
     </row>
-    <row r="192" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B192" s="4">
         <v>5906</v>
@@ -59483,10 +64040,34 @@
       <c r="CW192">
         <v>0</v>
       </c>
+      <c r="CX192">
+        <v>0</v>
+      </c>
+      <c r="CY192">
+        <v>0</v>
+      </c>
+      <c r="CZ192">
+        <v>0</v>
+      </c>
+      <c r="DA192">
+        <v>0</v>
+      </c>
+      <c r="DB192">
+        <v>0</v>
+      </c>
+      <c r="DC192">
+        <v>0</v>
+      </c>
+      <c r="DD192">
+        <v>0</v>
+      </c>
+      <c r="DE192">
+        <v>0</v>
+      </c>
     </row>
-    <row r="193" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B193" s="4">
         <v>11378</v>
@@ -59788,10 +64369,34 @@
       <c r="CW193">
         <v>0</v>
       </c>
+      <c r="CX193">
+        <v>0</v>
+      </c>
+      <c r="CY193">
+        <v>0</v>
+      </c>
+      <c r="CZ193">
+        <v>0</v>
+      </c>
+      <c r="DA193">
+        <v>0</v>
+      </c>
+      <c r="DB193">
+        <v>0</v>
+      </c>
+      <c r="DC193">
+        <v>0</v>
+      </c>
+      <c r="DD193">
+        <v>0</v>
+      </c>
+      <c r="DE193">
+        <v>0</v>
+      </c>
     </row>
-    <row r="194" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B194" s="4">
         <v>138104</v>
@@ -60093,10 +64698,34 @@
       <c r="CW194">
         <v>6</v>
       </c>
+      <c r="CX194">
+        <v>6</v>
+      </c>
+      <c r="CY194">
+        <v>7</v>
+      </c>
+      <c r="CZ194">
+        <v>7</v>
+      </c>
+      <c r="DA194">
+        <v>7</v>
+      </c>
+      <c r="DB194">
+        <v>7</v>
+      </c>
+      <c r="DC194">
+        <v>7</v>
+      </c>
+      <c r="DD194">
+        <v>7</v>
+      </c>
+      <c r="DE194">
+        <v>7</v>
+      </c>
     </row>
-    <row r="195" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B195" s="4">
         <v>4226</v>
@@ -60398,10 +65027,34 @@
       <c r="CW195">
         <v>0</v>
       </c>
+      <c r="CX195">
+        <v>0</v>
+      </c>
+      <c r="CY195">
+        <v>0</v>
+      </c>
+      <c r="CZ195">
+        <v>0</v>
+      </c>
+      <c r="DA195">
+        <v>0</v>
+      </c>
+      <c r="DB195">
+        <v>0</v>
+      </c>
+      <c r="DC195">
+        <v>0</v>
+      </c>
+      <c r="DD195">
+        <v>0</v>
+      </c>
+      <c r="DE195">
+        <v>0</v>
+      </c>
     </row>
-    <row r="196" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B196" s="4">
         <v>3407</v>
@@ -60703,10 +65356,34 @@
       <c r="CW196">
         <v>0</v>
       </c>
+      <c r="CX196">
+        <v>0</v>
+      </c>
+      <c r="CY196">
+        <v>0</v>
+      </c>
+      <c r="CZ196">
+        <v>0</v>
+      </c>
+      <c r="DA196">
+        <v>0</v>
+      </c>
+      <c r="DB196">
+        <v>0</v>
+      </c>
+      <c r="DC196">
+        <v>0</v>
+      </c>
+      <c r="DD196">
+        <v>0</v>
+      </c>
+      <c r="DE196">
+        <v>0</v>
+      </c>
     </row>
-    <row r="197" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B197" s="4">
         <v>12610</v>
@@ -61008,10 +65685,34 @@
       <c r="CW197">
         <v>8</v>
       </c>
+      <c r="CX197">
+        <v>8</v>
+      </c>
+      <c r="CY197">
+        <v>8</v>
+      </c>
+      <c r="CZ197">
+        <v>8</v>
+      </c>
+      <c r="DA197">
+        <v>8</v>
+      </c>
+      <c r="DB197">
+        <v>8</v>
+      </c>
+      <c r="DC197">
+        <v>8</v>
+      </c>
+      <c r="DD197">
+        <v>8</v>
+      </c>
+      <c r="DE197">
+        <v>8</v>
+      </c>
     </row>
-    <row r="198" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B198" s="4">
         <v>15707</v>
@@ -61313,10 +66014,34 @@
       <c r="CW198">
         <v>0</v>
       </c>
+      <c r="CX198">
+        <v>0</v>
+      </c>
+      <c r="CY198">
+        <v>0</v>
+      </c>
+      <c r="CZ198">
+        <v>0</v>
+      </c>
+      <c r="DA198">
+        <v>0</v>
+      </c>
+      <c r="DB198">
+        <v>0</v>
+      </c>
+      <c r="DC198">
+        <v>0</v>
+      </c>
+      <c r="DD198">
+        <v>0</v>
+      </c>
+      <c r="DE198">
+        <v>0</v>
+      </c>
     </row>
-    <row r="199" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B199" s="4">
         <v>7573</v>
@@ -61618,10 +66343,34 @@
       <c r="CW199">
         <v>0</v>
       </c>
+      <c r="CX199">
+        <v>0</v>
+      </c>
+      <c r="CY199">
+        <v>0</v>
+      </c>
+      <c r="CZ199">
+        <v>0</v>
+      </c>
+      <c r="DA199">
+        <v>0</v>
+      </c>
+      <c r="DB199">
+        <v>0</v>
+      </c>
+      <c r="DC199">
+        <v>0</v>
+      </c>
+      <c r="DD199">
+        <v>0</v>
+      </c>
+      <c r="DE199">
+        <v>0</v>
+      </c>
     </row>
-    <row r="200" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="B200" s="4">
         <v>983</v>
@@ -61923,10 +66672,34 @@
       <c r="CW200">
         <v>0</v>
       </c>
+      <c r="CX200">
+        <v>0</v>
+      </c>
+      <c r="CY200">
+        <v>0</v>
+      </c>
+      <c r="CZ200">
+        <v>0</v>
+      </c>
+      <c r="DA200">
+        <v>0</v>
+      </c>
+      <c r="DB200">
+        <v>0</v>
+      </c>
+      <c r="DC200">
+        <v>0</v>
+      </c>
+      <c r="DD200">
+        <v>0</v>
+      </c>
+      <c r="DE200">
+        <v>0</v>
+      </c>
     </row>
-    <row r="201" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B201" s="4">
         <v>16888</v>
@@ -62228,10 +67001,34 @@
       <c r="CW201">
         <v>0</v>
       </c>
+      <c r="CX201">
+        <v>0</v>
+      </c>
+      <c r="CY201">
+        <v>0</v>
+      </c>
+      <c r="CZ201">
+        <v>0</v>
+      </c>
+      <c r="DA201">
+        <v>0</v>
+      </c>
+      <c r="DB201">
+        <v>0</v>
+      </c>
+      <c r="DC201">
+        <v>0</v>
+      </c>
+      <c r="DD201">
+        <v>0</v>
+      </c>
+      <c r="DE201">
+        <v>0</v>
+      </c>
     </row>
-    <row r="202" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B202" s="4">
         <v>102243</v>
@@ -62533,10 +67330,34 @@
       <c r="CW202">
         <v>14</v>
       </c>
+      <c r="CX202">
+        <v>14</v>
+      </c>
+      <c r="CY202">
+        <v>14</v>
+      </c>
+      <c r="CZ202">
+        <v>14</v>
+      </c>
+      <c r="DA202">
+        <v>14</v>
+      </c>
+      <c r="DB202">
+        <v>14</v>
+      </c>
+      <c r="DC202">
+        <v>15</v>
+      </c>
+      <c r="DD202">
+        <v>15</v>
+      </c>
+      <c r="DE202">
+        <v>15</v>
+      </c>
     </row>
-    <row r="203" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B203" s="4">
         <v>11009</v>
@@ -62838,10 +67659,34 @@
       <c r="CW203">
         <v>0</v>
       </c>
+      <c r="CX203">
+        <v>0</v>
+      </c>
+      <c r="CY203">
+        <v>0</v>
+      </c>
+      <c r="CZ203">
+        <v>0</v>
+      </c>
+      <c r="DA203">
+        <v>0</v>
+      </c>
+      <c r="DB203">
+        <v>0</v>
+      </c>
+      <c r="DC203">
+        <v>0</v>
+      </c>
+      <c r="DD203">
+        <v>0</v>
+      </c>
+      <c r="DE203">
+        <v>0</v>
+      </c>
     </row>
-    <row r="204" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B204" s="4">
         <v>52767</v>
@@ -63143,10 +67988,34 @@
       <c r="CW204">
         <v>2</v>
       </c>
+      <c r="CX204">
+        <v>2</v>
+      </c>
+      <c r="CY204">
+        <v>2</v>
+      </c>
+      <c r="CZ204">
+        <v>2</v>
+      </c>
+      <c r="DA204">
+        <v>2</v>
+      </c>
+      <c r="DB204">
+        <v>2</v>
+      </c>
+      <c r="DC204">
+        <v>2</v>
+      </c>
+      <c r="DD204">
+        <v>2</v>
+      </c>
+      <c r="DE204">
+        <v>2</v>
+      </c>
     </row>
-    <row r="205" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B205" s="4">
         <v>9936</v>
@@ -63448,10 +68317,34 @@
       <c r="CW205">
         <v>1</v>
       </c>
+      <c r="CX205">
+        <v>1</v>
+      </c>
+      <c r="CY205">
+        <v>1</v>
+      </c>
+      <c r="CZ205">
+        <v>1</v>
+      </c>
+      <c r="DA205">
+        <v>1</v>
+      </c>
+      <c r="DB205">
+        <v>1</v>
+      </c>
+      <c r="DC205">
+        <v>1</v>
+      </c>
+      <c r="DD205">
+        <v>1</v>
+      </c>
+      <c r="DE205">
+        <v>1</v>
+      </c>
     </row>
-    <row r="206" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B206" s="4">
         <v>8405</v>
@@ -63753,10 +68646,34 @@
       <c r="CW206">
         <v>4</v>
       </c>
+      <c r="CX206">
+        <v>4</v>
+      </c>
+      <c r="CY206">
+        <v>4</v>
+      </c>
+      <c r="CZ206">
+        <v>4</v>
+      </c>
+      <c r="DA206">
+        <v>4</v>
+      </c>
+      <c r="DB206">
+        <v>4</v>
+      </c>
+      <c r="DC206">
+        <v>4</v>
+      </c>
+      <c r="DD206">
+        <v>5</v>
+      </c>
+      <c r="DE206">
+        <v>6</v>
+      </c>
     </row>
-    <row r="207" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B207" s="4">
         <v>28844</v>
@@ -64058,10 +68975,34 @@
       <c r="CW207">
         <v>0</v>
       </c>
+      <c r="CX207">
+        <v>0</v>
+      </c>
+      <c r="CY207">
+        <v>0</v>
+      </c>
+      <c r="CZ207">
+        <v>0</v>
+      </c>
+      <c r="DA207">
+        <v>0</v>
+      </c>
+      <c r="DB207">
+        <v>0</v>
+      </c>
+      <c r="DC207">
+        <v>0</v>
+      </c>
+      <c r="DD207">
+        <v>0</v>
+      </c>
+      <c r="DE207">
+        <v>0</v>
+      </c>
     </row>
-    <row r="208" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B208" s="4">
         <v>71325</v>
@@ -64363,10 +69304,34 @@
       <c r="CW208">
         <v>0</v>
       </c>
+      <c r="CX208">
+        <v>0</v>
+      </c>
+      <c r="CY208">
+        <v>0</v>
+      </c>
+      <c r="CZ208">
+        <v>0</v>
+      </c>
+      <c r="DA208">
+        <v>0</v>
+      </c>
+      <c r="DB208">
+        <v>0</v>
+      </c>
+      <c r="DC208">
+        <v>0</v>
+      </c>
+      <c r="DD208">
+        <v>0</v>
+      </c>
+      <c r="DE208">
+        <v>0</v>
+      </c>
     </row>
-    <row r="209" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B209" s="4">
         <v>5873</v>
@@ -64668,10 +69633,34 @@
       <c r="CW209">
         <v>0</v>
       </c>
+      <c r="CX209">
+        <v>0</v>
+      </c>
+      <c r="CY209">
+        <v>0</v>
+      </c>
+      <c r="CZ209">
+        <v>0</v>
+      </c>
+      <c r="DA209">
+        <v>0</v>
+      </c>
+      <c r="DB209">
+        <v>0</v>
+      </c>
+      <c r="DC209">
+        <v>0</v>
+      </c>
+      <c r="DD209">
+        <v>0</v>
+      </c>
+      <c r="DE209">
+        <v>0</v>
+      </c>
     </row>
-    <row r="210" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B210" s="4">
         <v>3312</v>
@@ -64973,10 +69962,34 @@
       <c r="CW210">
         <v>0</v>
       </c>
+      <c r="CX210">
+        <v>0</v>
+      </c>
+      <c r="CY210">
+        <v>0</v>
+      </c>
+      <c r="CZ210">
+        <v>0</v>
+      </c>
+      <c r="DA210">
+        <v>0</v>
+      </c>
+      <c r="DB210">
+        <v>0</v>
+      </c>
+      <c r="DC210">
+        <v>0</v>
+      </c>
+      <c r="DD210">
+        <v>0</v>
+      </c>
+      <c r="DE210">
+        <v>0</v>
+      </c>
     </row>
-    <row r="211" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B211" s="4">
         <v>18368</v>
@@ -65278,10 +70291,34 @@
       <c r="CW211">
         <v>0</v>
       </c>
+      <c r="CX211">
+        <v>0</v>
+      </c>
+      <c r="CY211">
+        <v>0</v>
+      </c>
+      <c r="CZ211">
+        <v>0</v>
+      </c>
+      <c r="DA211">
+        <v>0</v>
+      </c>
+      <c r="DB211">
+        <v>0</v>
+      </c>
+      <c r="DC211">
+        <v>0</v>
+      </c>
+      <c r="DD211">
+        <v>0</v>
+      </c>
+      <c r="DE211">
+        <v>0</v>
+      </c>
     </row>
-    <row r="212" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B212" s="4">
         <v>3405</v>
@@ -65583,10 +70620,34 @@
       <c r="CW212">
         <v>0</v>
       </c>
+      <c r="CX212">
+        <v>0</v>
+      </c>
+      <c r="CY212">
+        <v>0</v>
+      </c>
+      <c r="CZ212">
+        <v>0</v>
+      </c>
+      <c r="DA212">
+        <v>0</v>
+      </c>
+      <c r="DB212">
+        <v>0</v>
+      </c>
+      <c r="DC212">
+        <v>0</v>
+      </c>
+      <c r="DD212">
+        <v>0</v>
+      </c>
+      <c r="DE212">
+        <v>0</v>
+      </c>
     </row>
-    <row r="213" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B213" s="4">
         <v>25545</v>
@@ -65888,10 +70949,34 @@
       <c r="CW213">
         <v>8</v>
       </c>
+      <c r="CX213">
+        <v>8</v>
+      </c>
+      <c r="CY213">
+        <v>8</v>
+      </c>
+      <c r="CZ213">
+        <v>8</v>
+      </c>
+      <c r="DA213">
+        <v>8</v>
+      </c>
+      <c r="DB213">
+        <v>8</v>
+      </c>
+      <c r="DC213">
+        <v>8</v>
+      </c>
+      <c r="DD213">
+        <v>8</v>
+      </c>
+      <c r="DE213">
+        <v>8</v>
+      </c>
     </row>
-    <row r="214" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B214" s="4">
         <v>3276</v>
@@ -66193,10 +71278,34 @@
       <c r="CW214">
         <v>0</v>
       </c>
+      <c r="CX214">
+        <v>0</v>
+      </c>
+      <c r="CY214">
+        <v>0</v>
+      </c>
+      <c r="CZ214">
+        <v>0</v>
+      </c>
+      <c r="DA214">
+        <v>0</v>
+      </c>
+      <c r="DB214">
+        <v>0</v>
+      </c>
+      <c r="DC214">
+        <v>0</v>
+      </c>
+      <c r="DD214">
+        <v>0</v>
+      </c>
+      <c r="DE214">
+        <v>0</v>
+      </c>
     </row>
-    <row r="215" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B215" s="4">
         <v>235143</v>
@@ -66498,10 +71607,34 @@
       <c r="CW215">
         <v>4</v>
       </c>
+      <c r="CX215">
+        <v>4</v>
+      </c>
+      <c r="CY215">
+        <v>4</v>
+      </c>
+      <c r="CZ215">
+        <v>4</v>
+      </c>
+      <c r="DA215">
+        <v>4</v>
+      </c>
+      <c r="DB215">
+        <v>4</v>
+      </c>
+      <c r="DC215">
+        <v>4</v>
+      </c>
+      <c r="DD215">
+        <v>4</v>
+      </c>
+      <c r="DE215">
+        <v>4</v>
+      </c>
     </row>
-    <row r="216" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B216" s="4">
         <v>9294</v>
@@ -66803,10 +71936,34 @@
       <c r="CW216">
         <v>0</v>
       </c>
+      <c r="CX216">
+        <v>0</v>
+      </c>
+      <c r="CY216">
+        <v>0</v>
+      </c>
+      <c r="CZ216">
+        <v>0</v>
+      </c>
+      <c r="DA216">
+        <v>0</v>
+      </c>
+      <c r="DB216">
+        <v>0</v>
+      </c>
+      <c r="DC216">
+        <v>0</v>
+      </c>
+      <c r="DD216">
+        <v>0</v>
+      </c>
+      <c r="DE216">
+        <v>0</v>
+      </c>
     </row>
-    <row r="217" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B217" s="4">
         <v>64731</v>
@@ -67108,10 +72265,34 @@
       <c r="CW217">
         <v>0</v>
       </c>
+      <c r="CX217">
+        <v>0</v>
+      </c>
+      <c r="CY217">
+        <v>0</v>
+      </c>
+      <c r="CZ217">
+        <v>0</v>
+      </c>
+      <c r="DA217">
+        <v>0</v>
+      </c>
+      <c r="DB217">
+        <v>0</v>
+      </c>
+      <c r="DC217">
+        <v>0</v>
+      </c>
+      <c r="DD217">
+        <v>0</v>
+      </c>
+      <c r="DE217">
+        <v>0</v>
+      </c>
     </row>
-    <row r="218" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B218" s="4">
         <v>9570</v>
@@ -67413,10 +72594,34 @@
       <c r="CW218">
         <v>0</v>
       </c>
+      <c r="CX218">
+        <v>0</v>
+      </c>
+      <c r="CY218">
+        <v>0</v>
+      </c>
+      <c r="CZ218">
+        <v>0</v>
+      </c>
+      <c r="DA218">
+        <v>0</v>
+      </c>
+      <c r="DB218">
+        <v>0</v>
+      </c>
+      <c r="DC218">
+        <v>0</v>
+      </c>
+      <c r="DD218">
+        <v>0</v>
+      </c>
+      <c r="DE218">
+        <v>0</v>
+      </c>
     </row>
-    <row r="219" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B219" s="4">
         <v>1252</v>
@@ -67718,10 +72923,34 @@
       <c r="CW219">
         <v>0</v>
       </c>
+      <c r="CX219">
+        <v>0</v>
+      </c>
+      <c r="CY219">
+        <v>0</v>
+      </c>
+      <c r="CZ219">
+        <v>0</v>
+      </c>
+      <c r="DA219">
+        <v>0</v>
+      </c>
+      <c r="DB219">
+        <v>0</v>
+      </c>
+      <c r="DC219">
+        <v>0</v>
+      </c>
+      <c r="DD219">
+        <v>0</v>
+      </c>
+      <c r="DE219">
+        <v>0</v>
+      </c>
     </row>
-    <row r="220" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B220" s="4">
         <v>1523</v>
@@ -68023,10 +73252,34 @@
       <c r="CW220">
         <v>0</v>
       </c>
+      <c r="CX220">
+        <v>0</v>
+      </c>
+      <c r="CY220">
+        <v>0</v>
+      </c>
+      <c r="CZ220">
+        <v>0</v>
+      </c>
+      <c r="DA220">
+        <v>0</v>
+      </c>
+      <c r="DB220">
+        <v>0</v>
+      </c>
+      <c r="DC220">
+        <v>0</v>
+      </c>
+      <c r="DD220">
+        <v>0</v>
+      </c>
+      <c r="DE220">
+        <v>0</v>
+      </c>
     </row>
-    <row r="221" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B221" s="4">
         <v>4381</v>
@@ -68328,10 +73581,34 @@
       <c r="CW221">
         <v>0</v>
       </c>
+      <c r="CX221">
+        <v>0</v>
+      </c>
+      <c r="CY221">
+        <v>0</v>
+      </c>
+      <c r="CZ221">
+        <v>0</v>
+      </c>
+      <c r="DA221">
+        <v>0</v>
+      </c>
+      <c r="DB221">
+        <v>0</v>
+      </c>
+      <c r="DC221">
+        <v>0</v>
+      </c>
+      <c r="DD221">
+        <v>0</v>
+      </c>
+      <c r="DE221">
+        <v>0</v>
+      </c>
     </row>
-    <row r="222" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B222" s="4">
         <v>7414</v>
@@ -68633,10 +73910,34 @@
       <c r="CW222">
         <v>1</v>
       </c>
+      <c r="CX222">
+        <v>1</v>
+      </c>
+      <c r="CY222">
+        <v>1</v>
+      </c>
+      <c r="CZ222">
+        <v>1</v>
+      </c>
+      <c r="DA222">
+        <v>1</v>
+      </c>
+      <c r="DB222">
+        <v>1</v>
+      </c>
+      <c r="DC222">
+        <v>1</v>
+      </c>
+      <c r="DD222">
+        <v>1</v>
+      </c>
+      <c r="DE222">
+        <v>1</v>
+      </c>
     </row>
-    <row r="223" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B223" s="4">
         <v>2143755</v>
@@ -68938,10 +74239,34 @@
       <c r="CW223">
         <v>184</v>
       </c>
+      <c r="CX223">
+        <v>189</v>
+      </c>
+      <c r="CY223">
+        <v>190</v>
+      </c>
+      <c r="CZ223">
+        <v>191</v>
+      </c>
+      <c r="DA223">
+        <v>194</v>
+      </c>
+      <c r="DB223">
+        <v>197</v>
+      </c>
+      <c r="DC223">
+        <v>197</v>
+      </c>
+      <c r="DD223">
+        <v>198</v>
+      </c>
+      <c r="DE223">
+        <v>199</v>
+      </c>
     </row>
-    <row r="224" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B224" s="4">
         <v>139457</v>
@@ -69243,10 +74568,34 @@
       <c r="CW224">
         <v>5</v>
       </c>
+      <c r="CX224">
+        <v>5</v>
+      </c>
+      <c r="CY224">
+        <v>5</v>
+      </c>
+      <c r="CZ224">
+        <v>5</v>
+      </c>
+      <c r="DA224">
+        <v>5</v>
+      </c>
+      <c r="DB224">
+        <v>5</v>
+      </c>
+      <c r="DC224">
+        <v>5</v>
+      </c>
+      <c r="DD224">
+        <v>5</v>
+      </c>
+      <c r="DE224">
+        <v>5</v>
+      </c>
     </row>
-    <row r="225" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B225" s="4">
         <v>1054</v>
@@ -69548,10 +74897,34 @@
       <c r="CW225">
         <v>0</v>
       </c>
+      <c r="CX225">
+        <v>0</v>
+      </c>
+      <c r="CY225">
+        <v>0</v>
+      </c>
+      <c r="CZ225">
+        <v>0</v>
+      </c>
+      <c r="DA225">
+        <v>0</v>
+      </c>
+      <c r="DB225">
+        <v>0</v>
+      </c>
+      <c r="DC225">
+        <v>0</v>
+      </c>
+      <c r="DD225">
+        <v>0</v>
+      </c>
+      <c r="DE225">
+        <v>0</v>
+      </c>
     </row>
-    <row r="226" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B226" s="4">
         <v>13040</v>
@@ -69853,10 +75226,34 @@
       <c r="CW226">
         <v>0</v>
       </c>
+      <c r="CX226">
+        <v>0</v>
+      </c>
+      <c r="CY226">
+        <v>0</v>
+      </c>
+      <c r="CZ226">
+        <v>0</v>
+      </c>
+      <c r="DA226">
+        <v>0</v>
+      </c>
+      <c r="DB226">
+        <v>0</v>
+      </c>
+      <c r="DC226">
+        <v>0</v>
+      </c>
+      <c r="DD226">
+        <v>0</v>
+      </c>
+      <c r="DE226">
+        <v>0</v>
+      </c>
     </row>
-    <row r="227" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B227" s="4">
         <v>1519</v>
@@ -70158,10 +75555,34 @@
       <c r="CW227">
         <v>0</v>
       </c>
+      <c r="CX227">
+        <v>0</v>
+      </c>
+      <c r="CY227">
+        <v>0</v>
+      </c>
+      <c r="CZ227">
+        <v>0</v>
+      </c>
+      <c r="DA227">
+        <v>0</v>
+      </c>
+      <c r="DB227">
+        <v>0</v>
+      </c>
+      <c r="DC227">
+        <v>0</v>
+      </c>
+      <c r="DD227">
+        <v>0</v>
+      </c>
+      <c r="DE227">
+        <v>0</v>
+      </c>
     </row>
-    <row r="228" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B228" s="4">
         <v>32953</v>
@@ -70463,10 +75884,34 @@
       <c r="CW228">
         <v>2</v>
       </c>
+      <c r="CX228">
+        <v>2</v>
+      </c>
+      <c r="CY228">
+        <v>2</v>
+      </c>
+      <c r="CZ228">
+        <v>2</v>
+      </c>
+      <c r="DA228">
+        <v>2</v>
+      </c>
+      <c r="DB228">
+        <v>2</v>
+      </c>
+      <c r="DC228">
+        <v>3</v>
+      </c>
+      <c r="DD228">
+        <v>4</v>
+      </c>
+      <c r="DE228">
+        <v>4</v>
+      </c>
     </row>
-    <row r="229" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="B229" s="4">
         <v>123276</v>
@@ -70768,10 +76213,34 @@
       <c r="CW229">
         <v>1</v>
       </c>
+      <c r="CX229">
+        <v>1</v>
+      </c>
+      <c r="CY229">
+        <v>1</v>
+      </c>
+      <c r="CZ229">
+        <v>1</v>
+      </c>
+      <c r="DA229">
+        <v>1</v>
+      </c>
+      <c r="DB229">
+        <v>1</v>
+      </c>
+      <c r="DC229">
+        <v>1</v>
+      </c>
+      <c r="DD229">
+        <v>1</v>
+      </c>
+      <c r="DE229">
+        <v>1</v>
+      </c>
     </row>
-    <row r="230" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B230" s="4">
         <v>1291502</v>
@@ -71073,10 +76542,34 @@
       <c r="CW230">
         <v>99</v>
       </c>
+      <c r="CX230">
+        <v>99</v>
+      </c>
+      <c r="CY230">
+        <v>101</v>
+      </c>
+      <c r="CZ230">
+        <v>104</v>
+      </c>
+      <c r="DA230">
+        <v>104</v>
+      </c>
+      <c r="DB230">
+        <v>104</v>
+      </c>
+      <c r="DC230">
+        <v>106</v>
+      </c>
+      <c r="DD230">
+        <v>106</v>
+      </c>
+      <c r="DE230">
+        <v>108</v>
+      </c>
     </row>
-    <row r="231" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="B231" s="4">
         <v>14233</v>
@@ -71378,10 +76871,34 @@
       <c r="CW231">
         <v>0</v>
       </c>
+      <c r="CX231">
+        <v>0</v>
+      </c>
+      <c r="CY231">
+        <v>0</v>
+      </c>
+      <c r="CZ231">
+        <v>0</v>
+      </c>
+      <c r="DA231">
+        <v>0</v>
+      </c>
+      <c r="DB231">
+        <v>0</v>
+      </c>
+      <c r="DC231">
+        <v>0</v>
+      </c>
+      <c r="DD231">
+        <v>0</v>
+      </c>
+      <c r="DE231">
+        <v>0</v>
+      </c>
     </row>
-    <row r="232" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B232" s="4">
         <v>21343</v>
@@ -71683,10 +77200,34 @@
       <c r="CW232">
         <v>0</v>
       </c>
+      <c r="CX232">
+        <v>0</v>
+      </c>
+      <c r="CY232">
+        <v>0</v>
+      </c>
+      <c r="CZ232">
+        <v>0</v>
+      </c>
+      <c r="DA232">
+        <v>0</v>
+      </c>
+      <c r="DB232">
+        <v>0</v>
+      </c>
+      <c r="DC232">
+        <v>0</v>
+      </c>
+      <c r="DD232">
+        <v>0</v>
+      </c>
+      <c r="DE232">
+        <v>0</v>
+      </c>
     </row>
-    <row r="233" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="B233" s="4">
         <v>41655</v>
@@ -71988,10 +77529,34 @@
       <c r="CW233">
         <v>0</v>
       </c>
+      <c r="CX233">
+        <v>0</v>
+      </c>
+      <c r="CY233">
+        <v>0</v>
+      </c>
+      <c r="CZ233">
+        <v>0</v>
+      </c>
+      <c r="DA233">
+        <v>0</v>
+      </c>
+      <c r="DB233">
+        <v>0</v>
+      </c>
+      <c r="DC233">
+        <v>0</v>
+      </c>
+      <c r="DD233">
+        <v>0</v>
+      </c>
+      <c r="DE233">
+        <v>0</v>
+      </c>
     </row>
-    <row r="234" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B234" s="4">
         <v>3983</v>
@@ -72293,10 +77858,34 @@
       <c r="CW234">
         <v>0</v>
       </c>
+      <c r="CX234">
+        <v>0</v>
+      </c>
+      <c r="CY234">
+        <v>0</v>
+      </c>
+      <c r="CZ234">
+        <v>0</v>
+      </c>
+      <c r="DA234">
+        <v>0</v>
+      </c>
+      <c r="DB234">
+        <v>0</v>
+      </c>
+      <c r="DC234">
+        <v>0</v>
+      </c>
+      <c r="DD234">
+        <v>0</v>
+      </c>
+      <c r="DE234">
+        <v>0</v>
+      </c>
     </row>
-    <row r="235" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="B235" s="4">
         <v>27937</v>
@@ -72598,10 +78187,34 @@
       <c r="CW235">
         <v>0</v>
       </c>
+      <c r="CX235">
+        <v>0</v>
+      </c>
+      <c r="CY235">
+        <v>0</v>
+      </c>
+      <c r="CZ235">
+        <v>0</v>
+      </c>
+      <c r="DA235">
+        <v>0</v>
+      </c>
+      <c r="DB235">
+        <v>0</v>
+      </c>
+      <c r="DC235">
+        <v>0</v>
+      </c>
+      <c r="DD235">
+        <v>0</v>
+      </c>
+      <c r="DE235">
+        <v>0</v>
+      </c>
     </row>
-    <row r="236" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B236" s="4">
         <v>48253</v>
@@ -72903,10 +78516,34 @@
       <c r="CW236">
         <v>0</v>
       </c>
+      <c r="CX236">
+        <v>0</v>
+      </c>
+      <c r="CY236">
+        <v>0</v>
+      </c>
+      <c r="CZ236">
+        <v>0</v>
+      </c>
+      <c r="DA236">
+        <v>0</v>
+      </c>
+      <c r="DB236">
+        <v>0</v>
+      </c>
+      <c r="DC236">
+        <v>0</v>
+      </c>
+      <c r="DD236">
+        <v>0</v>
+      </c>
+      <c r="DE236">
+        <v>0</v>
+      </c>
     </row>
-    <row r="237" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B237" s="4">
         <v>55469</v>
@@ -73208,10 +78845,34 @@
       <c r="CW237">
         <v>1</v>
       </c>
+      <c r="CX237">
+        <v>1</v>
+      </c>
+      <c r="CY237">
+        <v>1</v>
+      </c>
+      <c r="CZ237">
+        <v>1</v>
+      </c>
+      <c r="DA237">
+        <v>1</v>
+      </c>
+      <c r="DB237">
+        <v>1</v>
+      </c>
+      <c r="DC237">
+        <v>1</v>
+      </c>
+      <c r="DD237">
+        <v>1</v>
+      </c>
+      <c r="DE237">
+        <v>1</v>
+      </c>
     </row>
-    <row r="238" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B238" s="4">
         <v>97744</v>
@@ -73513,10 +79174,34 @@
       <c r="CW238">
         <v>8</v>
       </c>
+      <c r="CX238">
+        <v>8</v>
+      </c>
+      <c r="CY238">
+        <v>8</v>
+      </c>
+      <c r="CZ238">
+        <v>8</v>
+      </c>
+      <c r="DA238">
+        <v>8</v>
+      </c>
+      <c r="DB238">
+        <v>8</v>
+      </c>
+      <c r="DC238">
+        <v>8</v>
+      </c>
+      <c r="DD238">
+        <v>8</v>
+      </c>
+      <c r="DE238">
+        <v>8</v>
+      </c>
     </row>
-    <row r="239" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B239" s="4">
         <v>73997</v>
@@ -73818,10 +79503,34 @@
       <c r="CW239">
         <v>27</v>
       </c>
+      <c r="CX239">
+        <v>27</v>
+      </c>
+      <c r="CY239">
+        <v>27</v>
+      </c>
+      <c r="CZ239">
+        <v>27</v>
+      </c>
+      <c r="DA239">
+        <v>27</v>
+      </c>
+      <c r="DB239">
+        <v>27</v>
+      </c>
+      <c r="DC239">
+        <v>27</v>
+      </c>
+      <c r="DD239">
+        <v>27</v>
+      </c>
+      <c r="DE239">
+        <v>28</v>
+      </c>
     </row>
-    <row r="240" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B240" s="4">
         <v>50731</v>
@@ -74123,10 +79832,34 @@
       <c r="CW240">
         <v>0</v>
       </c>
+      <c r="CX240">
+        <v>0</v>
+      </c>
+      <c r="CY240">
+        <v>0</v>
+      </c>
+      <c r="CZ240">
+        <v>0</v>
+      </c>
+      <c r="DA240">
+        <v>0</v>
+      </c>
+      <c r="DB240">
+        <v>0</v>
+      </c>
+      <c r="DC240">
+        <v>0</v>
+      </c>
+      <c r="DD240">
+        <v>0</v>
+      </c>
+      <c r="DE240">
+        <v>0</v>
+      </c>
     </row>
-    <row r="241" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B241" s="4">
         <v>13592</v>
@@ -74428,10 +80161,34 @@
       <c r="CW241">
         <v>0</v>
       </c>
+      <c r="CX241">
+        <v>0</v>
+      </c>
+      <c r="CY241">
+        <v>0</v>
+      </c>
+      <c r="CZ241">
+        <v>0</v>
+      </c>
+      <c r="DA241">
+        <v>0</v>
+      </c>
+      <c r="DB241">
+        <v>0</v>
+      </c>
+      <c r="DC241">
+        <v>0</v>
+      </c>
+      <c r="DD241">
+        <v>0</v>
+      </c>
+      <c r="DE241">
+        <v>0</v>
+      </c>
     </row>
-    <row r="242" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B242" s="4">
         <v>35155</v>
@@ -74733,10 +80490,34 @@
       <c r="CW242">
         <v>25</v>
       </c>
+      <c r="CX242">
+        <v>25</v>
+      </c>
+      <c r="CY242">
+        <v>26</v>
+      </c>
+      <c r="CZ242">
+        <v>26</v>
+      </c>
+      <c r="DA242">
+        <v>26</v>
+      </c>
+      <c r="DB242">
+        <v>26</v>
+      </c>
+      <c r="DC242">
+        <v>26</v>
+      </c>
+      <c r="DD242">
+        <v>26</v>
+      </c>
+      <c r="DE242">
+        <v>26</v>
+      </c>
     </row>
-    <row r="243" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="B243" s="4">
         <v>276183</v>
@@ -75038,10 +80819,34 @@
       <c r="CW243">
         <v>20</v>
       </c>
+      <c r="CX243">
+        <v>20</v>
+      </c>
+      <c r="CY243">
+        <v>20</v>
+      </c>
+      <c r="CZ243">
+        <v>20</v>
+      </c>
+      <c r="DA243">
+        <v>20</v>
+      </c>
+      <c r="DB243">
+        <v>20</v>
+      </c>
+      <c r="DC243">
+        <v>20</v>
+      </c>
+      <c r="DD243">
+        <v>21</v>
+      </c>
+      <c r="DE243">
+        <v>22</v>
+      </c>
     </row>
-    <row r="244" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B244" s="4">
         <v>41941</v>
@@ -75343,10 +81148,34 @@
       <c r="CW244">
         <v>1</v>
       </c>
+      <c r="CX244">
+        <v>1</v>
+      </c>
+      <c r="CY244">
+        <v>1</v>
+      </c>
+      <c r="CZ244">
+        <v>1</v>
+      </c>
+      <c r="DA244">
+        <v>1</v>
+      </c>
+      <c r="DB244">
+        <v>1</v>
+      </c>
+      <c r="DC244">
+        <v>1</v>
+      </c>
+      <c r="DD244">
+        <v>1</v>
+      </c>
+      <c r="DE244">
+        <v>1</v>
+      </c>
     </row>
-    <row r="245" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B245" s="4">
         <v>5783</v>
@@ -75648,10 +81477,34 @@
       <c r="CW245">
         <v>0</v>
       </c>
+      <c r="CX245">
+        <v>0</v>
+      </c>
+      <c r="CY245">
+        <v>0</v>
+      </c>
+      <c r="CZ245">
+        <v>0</v>
+      </c>
+      <c r="DA245">
+        <v>0</v>
+      </c>
+      <c r="DB245">
+        <v>0</v>
+      </c>
+      <c r="DC245">
+        <v>0</v>
+      </c>
+      <c r="DD245">
+        <v>0</v>
+      </c>
+      <c r="DE245">
+        <v>0</v>
+      </c>
     </row>
-    <row r="246" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B246" s="4">
         <v>133138</v>
@@ -75953,10 +81806,34 @@
       <c r="CW246">
         <v>2</v>
       </c>
+      <c r="CX246">
+        <v>2</v>
+      </c>
+      <c r="CY246">
+        <v>2</v>
+      </c>
+      <c r="CZ246">
+        <v>2</v>
+      </c>
+      <c r="DA246">
+        <v>2</v>
+      </c>
+      <c r="DB246">
+        <v>2</v>
+      </c>
+      <c r="DC246">
+        <v>2</v>
+      </c>
+      <c r="DD246">
+        <v>2</v>
+      </c>
+      <c r="DE246">
+        <v>2</v>
+      </c>
     </row>
-    <row r="247" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B247" s="4">
         <v>13038</v>
@@ -76258,10 +82135,34 @@
       <c r="CW247">
         <v>0</v>
       </c>
+      <c r="CX247">
+        <v>0</v>
+      </c>
+      <c r="CY247">
+        <v>0</v>
+      </c>
+      <c r="CZ247">
+        <v>0</v>
+      </c>
+      <c r="DA247">
+        <v>0</v>
+      </c>
+      <c r="DB247">
+        <v>0</v>
+      </c>
+      <c r="DC247">
+        <v>0</v>
+      </c>
+      <c r="DD247">
+        <v>0</v>
+      </c>
+      <c r="DE247">
+        <v>0</v>
+      </c>
     </row>
-    <row r="248" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B248" s="4">
         <v>22134</v>
@@ -76563,10 +82464,34 @@
       <c r="CW248">
         <v>2</v>
       </c>
+      <c r="CX248">
+        <v>3</v>
+      </c>
+      <c r="CY248">
+        <v>3</v>
+      </c>
+      <c r="CZ248">
+        <v>3</v>
+      </c>
+      <c r="DA248">
+        <v>3</v>
+      </c>
+      <c r="DB248">
+        <v>3</v>
+      </c>
+      <c r="DC248">
+        <v>3</v>
+      </c>
+      <c r="DD248">
+        <v>3</v>
+      </c>
+      <c r="DE248">
+        <v>3</v>
+      </c>
     </row>
-    <row r="249" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="B249" s="4">
         <v>589914</v>
@@ -76868,10 +82793,34 @@
       <c r="CW249">
         <v>29</v>
       </c>
+      <c r="CX249">
+        <v>29</v>
+      </c>
+      <c r="CY249">
+        <v>30</v>
+      </c>
+      <c r="CZ249">
+        <v>30</v>
+      </c>
+      <c r="DA249">
+        <v>30</v>
+      </c>
+      <c r="DB249">
+        <v>30</v>
+      </c>
+      <c r="DC249">
+        <v>30</v>
+      </c>
+      <c r="DD249">
+        <v>30</v>
+      </c>
+      <c r="DE249">
+        <v>32</v>
+      </c>
     </row>
-    <row r="250" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B250" s="4">
         <v>51802</v>
@@ -77173,10 +83122,34 @@
       <c r="CW250">
         <v>5</v>
       </c>
+      <c r="CX250">
+        <v>5</v>
+      </c>
+      <c r="CY250">
+        <v>5</v>
+      </c>
+      <c r="CZ250">
+        <v>5</v>
+      </c>
+      <c r="DA250">
+        <v>5</v>
+      </c>
+      <c r="DB250">
+        <v>5</v>
+      </c>
+      <c r="DC250">
+        <v>5</v>
+      </c>
+      <c r="DD250">
+        <v>5</v>
+      </c>
+      <c r="DE250">
+        <v>5</v>
+      </c>
     </row>
-    <row r="251" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B251" s="4">
         <v>9295</v>
@@ -77478,10 +83451,34 @@
       <c r="CW251">
         <v>0</v>
       </c>
+      <c r="CX251">
+        <v>0</v>
+      </c>
+      <c r="CY251">
+        <v>0</v>
+      </c>
+      <c r="CZ251">
+        <v>0</v>
+      </c>
+      <c r="DA251">
+        <v>0</v>
+      </c>
+      <c r="DB251">
+        <v>0</v>
+      </c>
+      <c r="DC251">
+        <v>0</v>
+      </c>
+      <c r="DD251">
+        <v>0</v>
+      </c>
+      <c r="DE251">
+        <v>0</v>
+      </c>
     </row>
-    <row r="252" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B252" s="4">
         <v>65807</v>
@@ -77783,10 +83780,34 @@
       <c r="CW252">
         <v>5</v>
       </c>
+      <c r="CX252">
+        <v>5</v>
+      </c>
+      <c r="CY252">
+        <v>5</v>
+      </c>
+      <c r="CZ252">
+        <v>5</v>
+      </c>
+      <c r="DA252">
+        <v>5</v>
+      </c>
+      <c r="DB252">
+        <v>5</v>
+      </c>
+      <c r="DC252">
+        <v>5</v>
+      </c>
+      <c r="DD252">
+        <v>5</v>
+      </c>
+      <c r="DE252">
+        <v>5</v>
+      </c>
     </row>
-    <row r="253" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B253" s="4">
         <v>45292</v>
@@ -78088,10 +84109,34 @@
       <c r="CW253">
         <v>4</v>
       </c>
+      <c r="CX253">
+        <v>5</v>
+      </c>
+      <c r="CY253">
+        <v>5</v>
+      </c>
+      <c r="CZ253">
+        <v>5</v>
+      </c>
+      <c r="DA253">
+        <v>5</v>
+      </c>
+      <c r="DB253">
+        <v>5</v>
+      </c>
+      <c r="DC253">
+        <v>5</v>
+      </c>
+      <c r="DD253">
+        <v>5</v>
+      </c>
+      <c r="DE253">
+        <v>5</v>
+      </c>
     </row>
-    <row r="254" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B254" s="4">
         <v>9225</v>
@@ -78393,10 +84438,34 @@
       <c r="CW254">
         <v>0</v>
       </c>
+      <c r="CX254">
+        <v>0</v>
+      </c>
+      <c r="CY254">
+        <v>0</v>
+      </c>
+      <c r="CZ254">
+        <v>0</v>
+      </c>
+      <c r="DA254">
+        <v>0</v>
+      </c>
+      <c r="DB254">
+        <v>0</v>
+      </c>
+      <c r="DC254">
+        <v>0</v>
+      </c>
+      <c r="DD254">
+        <v>0</v>
+      </c>
+      <c r="DE254">
+        <v>0</v>
+      </c>
     </row>
-    <row r="255" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B255" s="4">
         <v>18712</v>
@@ -78698,10 +84767,34 @@
       <c r="CW255">
         <v>1</v>
       </c>
+      <c r="CX255">
+        <v>1</v>
+      </c>
+      <c r="CY255">
+        <v>1</v>
+      </c>
+      <c r="CZ255">
+        <v>1</v>
+      </c>
+      <c r="DA255">
+        <v>1</v>
+      </c>
+      <c r="DB255">
+        <v>1</v>
+      </c>
+      <c r="DC255">
+        <v>1</v>
+      </c>
+      <c r="DD255">
+        <v>1</v>
+      </c>
+      <c r="DE255">
+        <v>1</v>
+      </c>
     </row>
-    <row r="256" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B256" s="4">
         <v>14409</v>
@@ -79003,10 +85096,34 @@
       <c r="CW256">
         <v>0</v>
       </c>
+      <c r="CX256">
+        <v>0</v>
+      </c>
+      <c r="CY256">
+        <v>0</v>
+      </c>
+      <c r="CZ256">
+        <v>0</v>
+      </c>
+      <c r="DA256">
+        <v>0</v>
+      </c>
+      <c r="DB256">
+        <v>0</v>
+      </c>
+      <c r="DC256">
+        <v>0</v>
+      </c>
+      <c r="DD256">
+        <v>0</v>
+      </c>
+      <c r="DE256">
+        <v>0</v>
+      </c>
     </row>
-    <row r="257" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B257" s="4">
         <v>12682</v>
@@ -79308,10 +85425,34 @@
       <c r="CW257">
         <v>0</v>
       </c>
+      <c r="CX257">
+        <v>0</v>
+      </c>
+      <c r="CY257">
+        <v>0</v>
+      </c>
+      <c r="CZ257">
+        <v>0</v>
+      </c>
+      <c r="DA257">
+        <v>0</v>
+      </c>
+      <c r="DB257">
+        <v>0</v>
+      </c>
+      <c r="DC257">
+        <v>0</v>
+      </c>
+      <c r="DD257">
+        <v>0</v>
+      </c>
+      <c r="DE257">
+        <v>0</v>
+      </c>
     </row>
-    <row r="258" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B258" s="4">
         <v>29677668</v>
@@ -79613,21 +85754,45 @@
       <c r="CW258">
         <v>1885</v>
       </c>
+      <c r="CX258">
+        <v>1920</v>
+      </c>
+      <c r="CY258">
+        <v>1939</v>
+      </c>
+      <c r="CZ258">
+        <v>1957</v>
+      </c>
+      <c r="DA258">
+        <v>1976</v>
+      </c>
+      <c r="DB258">
+        <v>1983</v>
+      </c>
+      <c r="DC258">
+        <v>2029</v>
+      </c>
+      <c r="DD258">
+        <v>2062</v>
+      </c>
+      <c r="DE258">
+        <v>2105</v>
+      </c>
     </row>
-    <row r="259" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B259" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
-    <row r="260" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B260" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C260">
         <v>0</v>
@@ -79909,78 +86074,102 @@
         <v>117</v>
       </c>
       <c r="CR260">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CS260">
+        <v>121</v>
+      </c>
+      <c r="CT260">
+        <v>120</v>
+      </c>
+      <c r="CU260">
+        <v>120</v>
+      </c>
+      <c r="CV260">
+        <v>120</v>
+      </c>
+      <c r="CW260">
+        <v>120</v>
+      </c>
+      <c r="CX260">
         <v>122</v>
       </c>
-      <c r="CT260">
-        <v>121</v>
-      </c>
-      <c r="CU260">
-        <v>119</v>
-      </c>
-      <c r="CV260">
-        <v>119</v>
-      </c>
-      <c r="CW260">
-        <v>119</v>
+      <c r="CY260">
+        <v>123</v>
+      </c>
+      <c r="CZ260">
+        <v>123</v>
+      </c>
+      <c r="DA260">
+        <v>123</v>
+      </c>
+      <c r="DB260">
+        <v>123</v>
+      </c>
+      <c r="DC260">
+        <v>123</v>
+      </c>
+      <c r="DD260">
+        <v>124</v>
+      </c>
+      <c r="DE260">
+        <v>124</v>
       </c>
     </row>
-    <row r="261" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B261" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
-    <row r="262" spans="1:101" x14ac:dyDescent="0.35">
-      <c r="A262" s="5" t="s">
-        <v>360</v>
+    <row r="262" spans="1:109" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>368</v>
       </c>
       <c r="B262" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
-    <row r="263" spans="1:101" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:109" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A263" s="5" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B263" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
-    <row r="264" spans="1:101" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:109" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A264" s="5" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B264" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
-    <row r="265" spans="1:101" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:109" ht="29" x14ac:dyDescent="0.35">
       <c r="A265" s="5" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="B265" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
-    <row r="266" spans="1:101" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:109" ht="174" x14ac:dyDescent="0.35">
       <c r="A266" s="5" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B266" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
-    <row r="267" spans="1:101" ht="203" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:109" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A267" s="5" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B267" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
